--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FD1413-7647-4C54-B1F3-CB7B3BF819CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{92FD1413-7647-4C54-B1F3-CB7B3BF819CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5686AE38-F246-4906-A323-C8CAECE09536}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <t>State</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>Video showing simplified use of FREQUENCY</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,77 +819,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,6 +861,78 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,9 +970,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1274,17 +1280,17 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="J1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="64"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1293,11 +1299,11 @@
       <c r="B2" s="6">
         <v>112</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
       <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
@@ -1334,12 +1340,12 @@
       <c r="C4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="87" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="39" t="s">
         <v>85</v>
       </c>
       <c r="H4" s="15"/>
@@ -1360,13 +1366,13 @@
       <c r="C5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="40" t="s">
         <v>85</v>
       </c>
       <c r="J5" s="12" t="s">
@@ -1384,13 +1390,13 @@
         <v>134</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -1405,11 +1411,11 @@
       <c r="B7" s="6">
         <v>118</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1418,11 +1424,11 @@
       <c r="B8" s="6">
         <v>106</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1431,11 +1437,11 @@
       <c r="B9" s="6">
         <v>110</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1447,13 +1453,13 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="40" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1467,12 +1473,12 @@
       <c r="C11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="88" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="40" t="s">
         <v>85</v>
       </c>
       <c r="H11" s="2"/>
@@ -1599,13 +1605,13 @@
         <v>114</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1614,11 +1620,11 @@
       <c r="B20" s="6">
         <v>105</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1627,11 +1633,11 @@
       <c r="B21" s="6">
         <v>109</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1640,11 +1646,11 @@
       <c r="B22" s="6">
         <v>107</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1656,14 +1662,14 @@
       <c r="C23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="88" t="s">
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="40" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1674,11 +1680,11 @@
       <c r="B24" s="6">
         <v>114</v>
       </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2095,15 +2101,15 @@
     <sortCondition ref="A2:A52"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="D23:H24"/>
+    <mergeCell ref="D6:H9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="D1:H2"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D19:H22"/>
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="D6:H9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{1A4D9B31-31EF-455F-A939-EFF024C47ED2}"/>
@@ -2121,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1137E8F-1C1D-4812-96CD-8ACE7317344E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,17 +2149,17 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="J1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="64"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2162,11 +2168,11 @@
       <c r="B2" s="6">
         <v>112</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
       <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
@@ -2209,7 +2215,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="35"/>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="40" t="s">
         <v>85</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -2227,13 +2233,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
       <c r="J5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2248,11 +2254,11 @@
       <c r="B6" s="6">
         <v>134</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -2267,11 +2273,11 @@
       <c r="B7" s="6">
         <v>118</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -2280,11 +2286,11 @@
       <c r="B8" s="6">
         <v>106</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -2296,13 +2302,13 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="40" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2316,15 +2322,19 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="88" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2348,11 +2358,11 @@
       <c r="H11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -2452,13 +2462,13 @@
         <v>114</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2467,11 +2477,11 @@
       <c r="B19" s="6">
         <v>114</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -2480,11 +2490,11 @@
       <c r="B20" s="6">
         <v>105</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -2493,11 +2503,11 @@
       <c r="B21" s="6">
         <v>109</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -2509,14 +2519,14 @@
       <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="88" t="s">
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="40" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2527,11 +2537,11 @@
       <c r="B23" s="6">
         <v>112</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2773,7 +2783,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
     <sortCondition ref="A2:A29"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D18:H21"/>
     <mergeCell ref="D22:H23"/>
@@ -2782,14 +2792,16 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="D5:H8"/>
     <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{359FCE77-05D3-4F9C-ABDA-F7B1E5CE024C}"/>
     <hyperlink ref="H9" r:id="rId2" xr:uid="{8145BF5A-91EF-4139-8882-41D98A587BEF}"/>
     <hyperlink ref="G10" r:id="rId3" xr:uid="{16A3184C-5B21-4250-8AC2-BD4506A0A66A}"/>
     <hyperlink ref="I22" r:id="rId4" xr:uid="{21372468-7144-45F2-810C-AF73549AE097}"/>
+    <hyperlink ref="H10:J10" r:id="rId5" display="Video showing simplified use of FREQUENCY" xr:uid="{18F75E96-48E1-4188-949A-D7B7C41A367C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{92FD1413-7647-4C54-B1F3-CB7B3BF819CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5686AE38-F246-4906-A323-C8CAECE09536}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{92FD1413-7647-4C54-B1F3-CB7B3BF819CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD3456C1-D6C2-4BC0-98DA-09A6A13171C0}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="20796" windowHeight="11424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="876" windowWidth="22344" windowHeight="11628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -825,6 +825,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -860,15 +923,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -877,60 +931,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -991,6 +991,89 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Explosion: 8 Points 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778EC0C0-E991-4925-A559-5A3BF9A995E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9342120" y="1280160"/>
+          <a:ext cx="1981200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="irregularSeal1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="16200000" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
+            </a:rPr>
+            <a:t>Watch this!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1280,17 +1363,17 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="J1" s="41" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="J1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1299,11 +1382,11 @@
       <c r="B2" s="6">
         <v>112</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
@@ -1340,11 +1423,11 @@
       <c r="C4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="39" t="s">
         <v>85</v>
       </c>
@@ -1366,11 +1449,11 @@
       <c r="C5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="18"/>
       <c r="H5" s="40" t="s">
         <v>85</v>
@@ -1390,13 +1473,13 @@
         <v>134</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -1411,11 +1494,11 @@
       <c r="B7" s="6">
         <v>118</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1424,11 +1507,11 @@
       <c r="B8" s="6">
         <v>106</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1437,11 +1520,11 @@
       <c r="B9" s="6">
         <v>110</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1453,11 +1536,11 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>85</v>
@@ -1473,11 +1556,11 @@
       <c r="C11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="40" t="s">
         <v>85</v>
       </c>
@@ -1605,13 +1688,13 @@
         <v>114</v>
       </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -1620,11 +1703,11 @@
       <c r="B20" s="6">
         <v>105</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1633,11 +1716,11 @@
       <c r="B21" s="6">
         <v>109</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1646,11 +1729,11 @@
       <c r="B22" s="6">
         <v>107</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1662,13 +1745,13 @@
       <c r="C23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="40" t="s">
         <v>85</v>
       </c>
@@ -1680,11 +1763,11 @@
       <c r="B24" s="6">
         <v>114</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2128,7 +2211,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,10 +2239,10 @@
       <c r="F1" s="84"/>
       <c r="G1" s="84"/>
       <c r="H1" s="85"/>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2233,13 +2316,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="J5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2254,11 +2337,11 @@
       <c r="B6" s="6">
         <v>134</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="75"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -2273,11 +2356,11 @@
       <c r="B7" s="6">
         <v>118</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -2286,11 +2369,11 @@
       <c r="B8" s="6">
         <v>106</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -2302,11 +2385,11 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>85</v>
@@ -2322,11 +2405,11 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="40" t="s">
         <v>85</v>
       </c>
@@ -2462,13 +2545,13 @@
         <v>114</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2477,11 +2560,11 @@
       <c r="B19" s="6">
         <v>114</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -2490,11 +2573,11 @@
       <c r="B20" s="6">
         <v>105</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -2503,11 +2586,11 @@
       <c r="B21" s="6">
         <v>109</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -2803,5 +2886,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{92FD1413-7647-4C54-B1F3-CB7B3BF819CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD3456C1-D6C2-4BC0-98DA-09A6A13171C0}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{92FD1413-7647-4C54-B1F3-CB7B3BF819CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30F0997A-3B81-43DD-8743-BA3DB747AA90}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="876" windowWidth="22344" windowHeight="11628" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2052" yWindow="0" windowWidth="19536" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Formulas DQ2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="170">
   <si>
     <t>State</t>
   </si>
@@ -326,6 +329,255 @@
   <si>
     <t>Video showing simplified use of FREQUENCY</t>
   </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Rand1</t>
+  </si>
+  <si>
+    <t>Rand2</t>
+  </si>
+  <si>
+    <t>Rand3</t>
+  </si>
+  <si>
+    <t>Rand4</t>
+  </si>
+  <si>
+    <t>Rand5</t>
+  </si>
+  <si>
+    <t>Rand6</t>
+  </si>
+  <si>
+    <t>Rand7</t>
+  </si>
+  <si>
+    <t>Rand8</t>
+  </si>
+  <si>
+    <t>Rand9</t>
+  </si>
+  <si>
+    <t>Rand10</t>
+  </si>
+  <si>
+    <t>Rand11</t>
+  </si>
+  <si>
+    <t>Rand12</t>
+  </si>
+  <si>
+    <t>Rand13</t>
+  </si>
+  <si>
+    <t>Rand14</t>
+  </si>
+  <si>
+    <t>Rand15</t>
+  </si>
+  <si>
+    <t>Rand16</t>
+  </si>
+  <si>
+    <t>Rand17</t>
+  </si>
+  <si>
+    <t>Rand18</t>
+  </si>
+  <si>
+    <t>Rand19</t>
+  </si>
+  <si>
+    <t>Rand20</t>
+  </si>
+  <si>
+    <t>Rand21</t>
+  </si>
+  <si>
+    <t>Rand22</t>
+  </si>
+  <si>
+    <t>Enter you name -&gt;</t>
+  </si>
+  <si>
+    <t>This sheet is slighlty different than what is in the video. Everyone's sheet will be slighly different. Enter your name to generate your unique data here. Follow the same instructions after  this as in the video.</t>
+  </si>
+  <si>
+    <t>Rand23</t>
+  </si>
+  <si>
+    <t>Rand24</t>
+  </si>
+  <si>
+    <t>Rand25</t>
+  </si>
+  <si>
+    <t>Rand26</t>
+  </si>
+  <si>
+    <t>Rand27</t>
+  </si>
+  <si>
+    <t>Rand28</t>
+  </si>
+  <si>
+    <t>Rand29</t>
+  </si>
+  <si>
+    <t>Rand30</t>
+  </si>
+  <si>
+    <t>Rand31</t>
+  </si>
+  <si>
+    <t>Rand32</t>
+  </si>
+  <si>
+    <t>Rand33</t>
+  </si>
+  <si>
+    <t>Rand34</t>
+  </si>
+  <si>
+    <t>Rand35</t>
+  </si>
+  <si>
+    <t>Rand36</t>
+  </si>
+  <si>
+    <t>Rand37</t>
+  </si>
+  <si>
+    <t>Rand38</t>
+  </si>
+  <si>
+    <t>Rand39</t>
+  </si>
+  <si>
+    <t>Rand40</t>
+  </si>
+  <si>
+    <t>Rand41</t>
+  </si>
+  <si>
+    <t>Rand42</t>
+  </si>
+  <si>
+    <t>Rand43</t>
+  </si>
+  <si>
+    <t>Rand44</t>
+  </si>
+  <si>
+    <t>Rand45</t>
+  </si>
+  <si>
+    <t>Rand46</t>
+  </si>
+  <si>
+    <t>Rand47</t>
+  </si>
+  <si>
+    <t>Rand48</t>
+  </si>
+  <si>
+    <t>Rand49</t>
+  </si>
+  <si>
+    <t>Rand50</t>
+  </si>
+  <si>
+    <t>Rand51</t>
+  </si>
+  <si>
+    <t>Rand52</t>
+  </si>
+  <si>
+    <t>Rand53</t>
+  </si>
+  <si>
+    <t>Rand54</t>
+  </si>
+  <si>
+    <t>Rand55</t>
+  </si>
+  <si>
+    <t>Rand56</t>
+  </si>
+  <si>
+    <t>Rand57</t>
+  </si>
+  <si>
+    <t>Rand58</t>
+  </si>
+  <si>
+    <t>Rand59</t>
+  </si>
+  <si>
+    <t>Rand60</t>
+  </si>
+  <si>
+    <t>Rand61</t>
+  </si>
+  <si>
+    <t>Rand62</t>
+  </si>
+  <si>
+    <t>Rand63</t>
+  </si>
+  <si>
+    <t>Rand64</t>
+  </si>
+  <si>
+    <t>Rand65</t>
+  </si>
+  <si>
+    <t>Rand66</t>
+  </si>
+  <si>
+    <t>Rand67</t>
+  </si>
+  <si>
+    <t>Rand68</t>
+  </si>
+  <si>
+    <t>Rand69</t>
+  </si>
+  <si>
+    <t>Rand70</t>
+  </si>
+  <si>
+    <t>Rand71</t>
+  </si>
+  <si>
+    <t>Rand72</t>
+  </si>
+  <si>
+    <t>Rand73</t>
+  </si>
+  <si>
+    <t>Rand74</t>
+  </si>
+  <si>
+    <t>Rand75</t>
+  </si>
+  <si>
+    <t>Rand76</t>
+  </si>
+  <si>
+    <t>Rand77</t>
+  </si>
+  <si>
+    <t>Rand78</t>
+  </si>
+  <si>
+    <t>Rand79</t>
+  </si>
+  <si>
+    <t>YOur Name</t>
+  </si>
 </sst>
 </file>
 
@@ -334,7 +586,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +625,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +993,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,69 +1107,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -923,6 +1146,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -931,6 +1163,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -980,7 +1299,28 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1339,540 +1679,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="64" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
+      <c r="D1" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" thickBot="1">
+      <c r="A2" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1"/>
+    <row r="6" spans="1:11" ht="15.6">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="J1" s="62" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="J6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6">
-        <v>112</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
-      <c r="J2" s="7" t="s">
+      <c r="B7" s="6">
+        <f ca="1">Sheet1!K20</f>
+        <v>106</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B8" s="6">
+        <f ca="1">Sheet1!K21</f>
         <v>100</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="J3" s="9" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="6">
-        <v>128</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B9" s="6">
+        <f ca="1">Sheet1!K22</f>
+        <v>134</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="39" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="J4" s="11" t="s">
+      <c r="H9" s="15"/>
+      <c r="J9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
-        <v>120</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B10" s="6">
+        <f ca="1">Sheet1!K23</f>
+        <v>116</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="6">
-        <v>134</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="J6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="6">
-        <v>118</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>106</v>
-      </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
-        <v>110</v>
-      </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="6">
-        <v>109</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6">
+        <f ca="1">Sheet1!K24</f>
+        <v>134</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="J11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6">
+        <f ca="1">Sheet1!K25</f>
+        <v>118</v>
+      </c>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <f ca="1">Sheet1!K26</f>
+        <v>106</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <f ca="1">Sheet1!K27</f>
+        <v>110</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <f ca="1">Sheet1!K28</f>
+        <v>115</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
+      <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B16" s="6">
+        <f ca="1">Sheet1!K29</f>
         <v>112</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D16" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="40" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B17" s="6">
+        <f ca="1">Sheet1!K30</f>
         <v>100</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B18" s="6">
+        <f ca="1">Sheet1!K31</f>
         <v>118</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B19" s="6">
+        <f ca="1">Sheet1!K32</f>
         <v>117</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B20" s="6">
+        <f ca="1">Sheet1!K33</f>
         <v>116</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B21" s="6">
+        <f ca="1">Sheet1!K34</f>
         <v>118</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6">
-        <v>121</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B22" s="6">
+        <f ca="1">Sheet1!K35</f>
+        <v>116</v>
+      </c>
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B23" s="6">
+        <f ca="1">Sheet1!K36</f>
+        <v>124</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <f ca="1">Sheet1!K37</f>
         <v>114</v>
       </c>
-      <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="C24" s="16"/>
+      <c r="D24" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6">
+        <f ca="1">Sheet1!K38</f>
+        <v>103</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6">
+        <f ca="1">Sheet1!K39</f>
+        <v>109</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6">
+        <f ca="1">Sheet1!K40</f>
+        <v>117</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6">
+        <f ca="1">Sheet1!K41</f>
+        <v>112</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="6">
+        <f ca="1">Sheet1!K42</f>
         <v>114</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6">
-        <v>105</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="6">
-        <v>109</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
-        <v>107</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="6">
-        <v>112</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="6">
-        <v>114</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B30" s="6">
+        <f ca="1">Sheet1!K43</f>
         <v>115</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="E30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B31" s="6">
+        <f ca="1">Sheet1!K44</f>
         <v>118</v>
       </c>
-      <c r="C26">
+      <c r="C31">
         <v>20</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="6">
-        <v>117</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="6">
-        <v>118</v>
-      </c>
-      <c r="C28">
-        <v>18</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="6">
-        <v>125</v>
-      </c>
-      <c r="C29">
-        <v>17</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="6">
-        <v>106</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="6">
-        <v>110</v>
-      </c>
-      <c r="C31">
-        <v>15</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="2"/>
@@ -1881,15 +2192,16 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6">
-        <v>122</v>
+        <f ca="1">Sheet1!K45</f>
+        <v>117</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="2"/>
@@ -1898,15 +2210,16 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B33" s="6">
-        <v>108</v>
+        <f ca="1">Sheet1!K46</f>
+        <v>113</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="2"/>
@@ -1915,15 +2228,16 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6">
-        <v>110</v>
-      </c>
-      <c r="C34" s="32">
-        <v>12</v>
+        <f ca="1">Sheet1!K47</f>
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="2"/>
@@ -1932,15 +2246,16 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6">
-        <v>121</v>
+        <f ca="1">Sheet1!K48</f>
+        <v>106</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="2"/>
@@ -1949,15 +2264,16 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B36" s="6">
-        <v>113</v>
+        <f ca="1">Sheet1!K49</f>
+        <v>110</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="2"/>
@@ -1966,100 +2282,106 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B37" s="6">
-        <v>120</v>
+        <f ca="1">Sheet1!K50</f>
+        <v>122</v>
       </c>
       <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6">
-        <v>119</v>
+        <f ca="1">Sheet1!K51</f>
+        <v>108</v>
       </c>
       <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B39" s="6">
-        <v>111</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="28"/>
+        <f ca="1">Sheet1!K52</f>
+        <v>110</v>
+      </c>
+      <c r="C39" s="32">
+        <v>12</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B40" s="6">
-        <v>104</v>
+        <f ca="1">Sheet1!K53</f>
+        <v>126</v>
       </c>
       <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B41" s="6">
+        <f ca="1">Sheet1!K54</f>
         <v>113</v>
       </c>
       <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B42" s="6">
-        <v>120</v>
+        <f ca="1">Sheet1!K55</f>
+        <v>116</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="28"/>
@@ -2068,15 +2390,16 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B43" s="6">
-        <v>113</v>
+        <f ca="1">Sheet1!K56</f>
+        <v>124</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="28"/>
@@ -2085,15 +2408,16 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B44" s="6">
-        <v>120</v>
+        <f ca="1">Sheet1!K57</f>
+        <v>107</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="28"/>
@@ -2102,104 +2426,208 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="6">
+        <f ca="1">Sheet1!K58</f>
+        <v>111</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="6">
+        <f ca="1">Sheet1!K59</f>
+        <v>111</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="6">
+        <f ca="1">Sheet1!K60</f>
+        <v>130</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="6">
+        <f ca="1">Sheet1!K61</f>
+        <v>111</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="6">
+        <f ca="1">Sheet1!K62</f>
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1">
+      <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="6">
-        <v>117</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="B50" s="6">
+        <f ca="1">Sheet1!K63</f>
+        <v>113</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickTop="1">
+      <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B51" s="6">
+        <f ca="1">Sheet1!K64</f>
         <v>105</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="6">
-        <v>110</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="6">
-        <v>118</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="6">
-        <v>112</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="6">
-        <v>114</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="6">
-        <v>115</v>
       </c>
       <c r="E51" s="2"/>
       <c r="H51" s="2"/>
     </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="6">
+        <f ca="1">Sheet1!K65</f>
+        <v>110</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6">
+        <f ca="1">Sheet1!K66</f>
+        <v>118</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="6">
+        <f ca="1">Sheet1!K67</f>
+        <v>118</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="6">
+        <f ca="1">Sheet1!K68</f>
+        <v>114</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="6">
+        <f ca="1">Sheet1!K69</f>
+        <v>115</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B52">
-    <sortCondition ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B57">
+    <sortCondition ref="A7:A57"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="D23:H24"/>
-    <mergeCell ref="D6:H9"/>
+  <mergeCells count="11">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D11:H14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D1:H2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D19:H22"/>
+    <mergeCell ref="D24:H27"/>
   </mergeCells>
+  <conditionalFormatting sqref="A5:K56">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B$2="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{1A4D9B31-31EF-455F-A939-EFF024C47ED2}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{7BE5FF37-1966-4C2F-8DF2-36BF7E146862}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{289E55CD-D09F-43E7-BBD8-087028C7D677}"/>
-    <hyperlink ref="G11" r:id="rId4" xr:uid="{09655D64-FF03-45EE-BFF1-C7F7AAB7437B}"/>
-    <hyperlink ref="I23" r:id="rId5" xr:uid="{90D42186-3EC6-4CBA-A9A6-D390BD68B385}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{1A4D9B31-31EF-455F-A939-EFF024C47ED2}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{7BE5FF37-1966-4C2F-8DF2-36BF7E146862}"/>
+    <hyperlink ref="H15" r:id="rId3" xr:uid="{289E55CD-D09F-43E7-BBD8-087028C7D677}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{09655D64-FF03-45EE-BFF1-C7F7AAB7437B}"/>
+    <hyperlink ref="I28" r:id="rId5" xr:uid="{90D42186-3EC6-4CBA-A9A6-D390BD68B385}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -2210,52 +2638,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1137E8F-1C1D-4812-96CD-8ACE7317344E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="98"/>
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="6">
-        <v>112</v>
-      </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
+        <f ca="1">Sheet1!K20</f>
+        <v>106</v>
+      </c>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
       <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
@@ -2263,11 +2692,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6">
+        <f ca="1">Sheet1!K21</f>
         <v>100</v>
       </c>
       <c r="D3" s="15"/>
@@ -2282,12 +2712,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="6">
-        <v>128</v>
+        <f ca="1">Sheet1!K22</f>
+        <v>134</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>64</v>
@@ -2308,21 +2739,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="6">
-        <v>120</v>
+        <f ca="1">Sheet1!K23</f>
+        <v>116</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
       <c r="J5" s="12" t="s">
         <v>59</v>
       </c>
@@ -2330,18 +2762,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="6">
+        <f ca="1">Sheet1!K24</f>
         <v>134</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -2349,81 +2782,86 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="6">
+        <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6">
+        <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="6">
+        <f ca="1">Sheet1!K27</f>
         <v>110</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6">
-        <v>109</v>
+        <f ca="1">Sheet1!K28</f>
+        <v>115</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="6">
+        <f ca="1">Sheet1!K29</f>
         <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2441,17 +2879,18 @@
       <c r="H11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="6">
+        <f ca="1">Sheet1!K30</f>
         <v>100</v>
       </c>
       <c r="D12" s="1">
@@ -2462,11 +2901,12 @@
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="6">
+        <f ca="1">Sheet1!K31</f>
         <v>118</v>
       </c>
       <c r="D13" s="1">
@@ -2477,11 +2917,12 @@
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="6">
+        <f ca="1">Sheet1!K32</f>
         <v>117</v>
       </c>
       <c r="D14" s="1">
@@ -2492,11 +2933,12 @@
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="6">
+        <f ca="1">Sheet1!K33</f>
         <v>116</v>
       </c>
       <c r="D15" s="1">
@@ -2507,11 +2949,12 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="6">
+        <f ca="1">Sheet1!K34</f>
         <v>118</v>
       </c>
       <c r="D16" s="1">
@@ -2522,12 +2965,13 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="6">
-        <v>121</v>
+        <f ca="1">Sheet1!K35</f>
+        <v>116</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -2537,328 +2981,362 @@
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="6">
-        <v>114</v>
+        <f ca="1">Sheet1!K36</f>
+        <v>124</v>
       </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6">
+        <f ca="1">Sheet1!K37</f>
         <v>114</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <v>105</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f ca="1">Sheet1!K38</f>
+        <v>103</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="6">
+        <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <v>107</v>
+        <f ca="1">Sheet1!K40</f>
+        <v>117</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="6">
+        <f ca="1">Sheet1!K41</f>
         <v>112</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="94"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="6">
+        <f ca="1">Sheet1!K42</f>
         <v>114</v>
       </c>
       <c r="E24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="6">
+        <f ca="1">Sheet1!K43</f>
         <v>115</v>
       </c>
       <c r="E25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="6">
+        <f ca="1">Sheet1!K44</f>
         <v>118</v>
       </c>
       <c r="E26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="6">
+        <f ca="1">Sheet1!K45</f>
         <v>117</v>
       </c>
       <c r="E27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="6">
-        <v>118</v>
+        <f ca="1">Sheet1!K46</f>
+        <v>113</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K47</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="6">
+        <f ca="1">Sheet1!K48</f>
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="6">
+        <f ca="1">Sheet1!K49</f>
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6">
+        <f ca="1">Sheet1!K50</f>
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="6">
+        <f ca="1">Sheet1!K51</f>
         <v>108</v>
       </c>
       <c r="C33" s="32"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="6">
+        <f ca="1">Sheet1!K52</f>
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="6">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K53</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="6">
+        <f ca="1">Sheet1!K54</f>
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K55</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K56</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K57</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="6">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K58</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K59</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K60</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K61</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K62</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="6">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K63</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="6">
+        <f ca="1">Sheet1!K64</f>
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="6">
+        <f ca="1">Sheet1!K65</f>
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="6">
+        <f ca="1">Sheet1!K66</f>
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="6">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <f ca="1">Sheet1!K67</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="6">
+        <f ca="1">Sheet1!K68</f>
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="6">
+        <f ca="1">Sheet1!K69</f>
         <v>115</v>
       </c>
     </row>
@@ -2887,5 +3365,3527 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
   <drawing r:id="rId7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{DFFB5F44-41EC-4BE2-B855-809370786DC3}">
+            <xm:f>'Hand DQ1'!$B$2="Your Name"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.34998626667073579"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1:XFD1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4523-7F16-4EE5-BC77-7F896A2520B8}">
+  <dimension ref="A1:X90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:K69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>5</v>
+      </c>
+      <c r="N1">
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <v>7</v>
+      </c>
+      <c r="P1">
+        <v>8</v>
+      </c>
+      <c r="Q1">
+        <v>9</v>
+      </c>
+      <c r="R1">
+        <v>10</v>
+      </c>
+      <c r="S1">
+        <v>11</v>
+      </c>
+      <c r="T1">
+        <v>12</v>
+      </c>
+      <c r="U1">
+        <v>13</v>
+      </c>
+      <c r="V1">
+        <v>14</v>
+      </c>
+      <c r="W1">
+        <v>15</v>
+      </c>
+      <c r="X1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>947</v>
+      </c>
+      <c r="T2">
+        <v>953</v>
+      </c>
+      <c r="U2">
+        <v>967</v>
+      </c>
+      <c r="V2">
+        <v>971</v>
+      </c>
+      <c r="W2">
+        <v>977</v>
+      </c>
+      <c r="X2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>41</v>
+      </c>
+      <c r="L3">
+        <v>43</v>
+      </c>
+      <c r="M3">
+        <v>47</v>
+      </c>
+      <c r="N3">
+        <v>53</v>
+      </c>
+      <c r="O3">
+        <v>59</v>
+      </c>
+      <c r="P3">
+        <v>61</v>
+      </c>
+      <c r="Q3">
+        <v>67</v>
+      </c>
+      <c r="R3">
+        <v>71</v>
+      </c>
+      <c r="S3">
+        <v>991</v>
+      </c>
+      <c r="T3">
+        <v>997</v>
+      </c>
+      <c r="U3">
+        <v>1009</v>
+      </c>
+      <c r="V3">
+        <v>1013</v>
+      </c>
+      <c r="W3">
+        <v>1019</v>
+      </c>
+      <c r="X3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>73</v>
+      </c>
+      <c r="J4">
+        <v>79</v>
+      </c>
+      <c r="K4">
+        <v>83</v>
+      </c>
+      <c r="L4">
+        <v>89</v>
+      </c>
+      <c r="M4">
+        <v>97</v>
+      </c>
+      <c r="N4">
+        <v>101</v>
+      </c>
+      <c r="O4">
+        <v>103</v>
+      </c>
+      <c r="P4">
+        <v>107</v>
+      </c>
+      <c r="Q4">
+        <v>109</v>
+      </c>
+      <c r="R4">
+        <v>113</v>
+      </c>
+      <c r="S4">
+        <v>1031</v>
+      </c>
+      <c r="T4">
+        <v>1033</v>
+      </c>
+      <c r="U4">
+        <v>1039</v>
+      </c>
+      <c r="V4">
+        <v>1049</v>
+      </c>
+      <c r="W4">
+        <v>1051</v>
+      </c>
+      <c r="X4">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>127</v>
+      </c>
+      <c r="J5">
+        <v>131</v>
+      </c>
+      <c r="K5">
+        <v>137</v>
+      </c>
+      <c r="L5">
+        <v>139</v>
+      </c>
+      <c r="M5">
+        <v>149</v>
+      </c>
+      <c r="N5">
+        <v>151</v>
+      </c>
+      <c r="O5">
+        <v>157</v>
+      </c>
+      <c r="P5">
+        <v>163</v>
+      </c>
+      <c r="Q5">
+        <v>167</v>
+      </c>
+      <c r="R5">
+        <v>173</v>
+      </c>
+      <c r="S5">
+        <v>1993</v>
+      </c>
+      <c r="T5">
+        <v>1997</v>
+      </c>
+      <c r="U5">
+        <v>1999</v>
+      </c>
+      <c r="V5">
+        <v>2003</v>
+      </c>
+      <c r="W5">
+        <v>2011</v>
+      </c>
+      <c r="X5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>CODE(MID('Hand DQ1'!B$2,A6,1))</f>
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <f>MOD(B6,16)</f>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f>MOD((B6-C6)/16,16)</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
+        <v>433</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>179</v>
+      </c>
+      <c r="J6">
+        <v>181</v>
+      </c>
+      <c r="K6">
+        <v>191</v>
+      </c>
+      <c r="L6">
+        <v>193</v>
+      </c>
+      <c r="M6">
+        <v>197</v>
+      </c>
+      <c r="N6">
+        <v>199</v>
+      </c>
+      <c r="O6">
+        <v>211</v>
+      </c>
+      <c r="P6">
+        <v>223</v>
+      </c>
+      <c r="Q6">
+        <v>227</v>
+      </c>
+      <c r="R6">
+        <v>229</v>
+      </c>
+      <c r="S6">
+        <v>2063</v>
+      </c>
+      <c r="T6">
+        <v>2069</v>
+      </c>
+      <c r="U6">
+        <v>2081</v>
+      </c>
+      <c r="V6">
+        <v>2083</v>
+      </c>
+      <c r="W6">
+        <v>2087</v>
+      </c>
+      <c r="X6">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>CODE(MID('Hand DQ1'!B$2,A7,1))</f>
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
+        <v>823</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>233</v>
+      </c>
+      <c r="J7">
+        <v>239</v>
+      </c>
+      <c r="K7">
+        <v>241</v>
+      </c>
+      <c r="L7">
+        <v>251</v>
+      </c>
+      <c r="M7">
+        <v>257</v>
+      </c>
+      <c r="N7">
+        <v>263</v>
+      </c>
+      <c r="O7">
+        <v>269</v>
+      </c>
+      <c r="P7">
+        <v>271</v>
+      </c>
+      <c r="Q7">
+        <v>277</v>
+      </c>
+      <c r="R7">
+        <v>281</v>
+      </c>
+      <c r="S7">
+        <v>2131</v>
+      </c>
+      <c r="T7">
+        <v>2137</v>
+      </c>
+      <c r="U7">
+        <v>2141</v>
+      </c>
+      <c r="V7">
+        <v>2143</v>
+      </c>
+      <c r="W7">
+        <v>2153</v>
+      </c>
+      <c r="X7">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f>CODE(MID('Hand DQ1'!B$2,A8,1))</f>
+        <v>117</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>283</v>
+      </c>
+      <c r="J8">
+        <v>293</v>
+      </c>
+      <c r="K8">
+        <v>307</v>
+      </c>
+      <c r="L8">
+        <v>311</v>
+      </c>
+      <c r="M8">
+        <v>313</v>
+      </c>
+      <c r="N8">
+        <v>317</v>
+      </c>
+      <c r="O8">
+        <v>331</v>
+      </c>
+      <c r="P8">
+        <v>337</v>
+      </c>
+      <c r="Q8">
+        <v>347</v>
+      </c>
+      <c r="R8">
+        <v>349</v>
+      </c>
+      <c r="S8">
+        <v>2221</v>
+      </c>
+      <c r="T8">
+        <v>2237</v>
+      </c>
+      <c r="U8">
+        <v>2239</v>
+      </c>
+      <c r="V8">
+        <v>2243</v>
+      </c>
+      <c r="W8">
+        <v>2251</v>
+      </c>
+      <c r="X8">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>CODE(MID('Hand DQ1'!B$2,A9,1))</f>
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>353</v>
+      </c>
+      <c r="J9">
+        <v>359</v>
+      </c>
+      <c r="K9">
+        <v>367</v>
+      </c>
+      <c r="L9">
+        <v>373</v>
+      </c>
+      <c r="M9">
+        <v>379</v>
+      </c>
+      <c r="N9">
+        <v>383</v>
+      </c>
+      <c r="O9">
+        <v>389</v>
+      </c>
+      <c r="P9">
+        <v>397</v>
+      </c>
+      <c r="Q9">
+        <v>401</v>
+      </c>
+      <c r="R9">
+        <v>409</v>
+      </c>
+      <c r="S9">
+        <v>2293</v>
+      </c>
+      <c r="T9">
+        <v>2297</v>
+      </c>
+      <c r="U9">
+        <v>2309</v>
+      </c>
+      <c r="V9">
+        <v>2311</v>
+      </c>
+      <c r="W9">
+        <v>2333</v>
+      </c>
+      <c r="X9">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>CODE(MID('Hand DQ1'!B$2,A10,1))</f>
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>419</v>
+      </c>
+      <c r="J10">
+        <v>421</v>
+      </c>
+      <c r="K10">
+        <v>431</v>
+      </c>
+      <c r="L10">
+        <v>433</v>
+      </c>
+      <c r="M10">
+        <v>439</v>
+      </c>
+      <c r="N10">
+        <v>443</v>
+      </c>
+      <c r="O10">
+        <v>449</v>
+      </c>
+      <c r="P10">
+        <v>457</v>
+      </c>
+      <c r="Q10">
+        <v>461</v>
+      </c>
+      <c r="R10">
+        <v>463</v>
+      </c>
+      <c r="S10">
+        <v>2371</v>
+      </c>
+      <c r="T10">
+        <v>2377</v>
+      </c>
+      <c r="U10">
+        <v>2381</v>
+      </c>
+      <c r="V10">
+        <v>2383</v>
+      </c>
+      <c r="W10">
+        <v>2389</v>
+      </c>
+      <c r="X10">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11">
+        <f ca="1">MOD(PRODUCT(E6:E10),G13)</f>
+        <v>28773</v>
+      </c>
+      <c r="G11">
+        <v>1103515245</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>467</v>
+      </c>
+      <c r="J11">
+        <v>479</v>
+      </c>
+      <c r="K11">
+        <v>487</v>
+      </c>
+      <c r="L11">
+        <v>491</v>
+      </c>
+      <c r="M11">
+        <v>499</v>
+      </c>
+      <c r="N11">
+        <v>503</v>
+      </c>
+      <c r="O11">
+        <v>509</v>
+      </c>
+      <c r="P11">
+        <v>521</v>
+      </c>
+      <c r="Q11">
+        <v>523</v>
+      </c>
+      <c r="R11">
+        <v>541</v>
+      </c>
+      <c r="S11">
+        <v>2437</v>
+      </c>
+      <c r="T11">
+        <v>2441</v>
+      </c>
+      <c r="U11">
+        <v>2447</v>
+      </c>
+      <c r="V11">
+        <v>2459</v>
+      </c>
+      <c r="W11">
+        <v>2467</v>
+      </c>
+      <c r="X11">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
+        <f ca="1">MOD(B11*G11+G12,G13)</f>
+        <v>20794</v>
+      </c>
+      <c r="C12">
+        <f ca="1">MOD(B12,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f ca="1">B12/G$13</f>
+        <v>0.63458251953125</v>
+      </c>
+      <c r="E12">
+        <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f ca="1">(C12-C13)*ROUND(D12*10,0)</f>
+        <v>-6</v>
+      </c>
+      <c r="G12">
+        <v>12345</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>547</v>
+      </c>
+      <c r="J12">
+        <v>557</v>
+      </c>
+      <c r="K12">
+        <v>563</v>
+      </c>
+      <c r="L12">
+        <v>569</v>
+      </c>
+      <c r="M12">
+        <v>571</v>
+      </c>
+      <c r="N12">
+        <v>577</v>
+      </c>
+      <c r="O12">
+        <v>587</v>
+      </c>
+      <c r="P12">
+        <v>593</v>
+      </c>
+      <c r="Q12">
+        <v>599</v>
+      </c>
+      <c r="R12">
+        <v>601</v>
+      </c>
+      <c r="S12">
+        <v>2539</v>
+      </c>
+      <c r="T12">
+        <v>2543</v>
+      </c>
+      <c r="U12">
+        <v>2549</v>
+      </c>
+      <c r="V12">
+        <v>2551</v>
+      </c>
+      <c r="W12">
+        <v>2557</v>
+      </c>
+      <c r="X12">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="41">
+        <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*G$11+G$12,G$13)</f>
+        <v>29163</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D33" ca="1" si="5">B13/G$13</f>
+        <v>0.889984130859375</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F76" ca="1" si="7">(C13-C14)*ROUND(D13*10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>32768</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>607</v>
+      </c>
+      <c r="J13">
+        <v>613</v>
+      </c>
+      <c r="K13">
+        <v>617</v>
+      </c>
+      <c r="L13">
+        <v>619</v>
+      </c>
+      <c r="M13">
+        <v>631</v>
+      </c>
+      <c r="N13">
+        <v>641</v>
+      </c>
+      <c r="O13">
+        <v>643</v>
+      </c>
+      <c r="P13">
+        <v>647</v>
+      </c>
+      <c r="Q13">
+        <v>653</v>
+      </c>
+      <c r="R13">
+        <v>659</v>
+      </c>
+      <c r="S13">
+        <v>2621</v>
+      </c>
+      <c r="T13">
+        <v>2633</v>
+      </c>
+      <c r="U13">
+        <v>2647</v>
+      </c>
+      <c r="V13">
+        <v>2657</v>
+      </c>
+      <c r="W13">
+        <v>2659</v>
+      </c>
+      <c r="X13">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>19272</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.588134765625</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>661</v>
+      </c>
+      <c r="J14">
+        <v>673</v>
+      </c>
+      <c r="K14">
+        <v>677</v>
+      </c>
+      <c r="L14">
+        <v>683</v>
+      </c>
+      <c r="M14">
+        <v>691</v>
+      </c>
+      <c r="N14">
+        <v>701</v>
+      </c>
+      <c r="O14">
+        <v>709</v>
+      </c>
+      <c r="P14">
+        <v>719</v>
+      </c>
+      <c r="Q14">
+        <v>727</v>
+      </c>
+      <c r="R14">
+        <v>733</v>
+      </c>
+      <c r="S14">
+        <v>2689</v>
+      </c>
+      <c r="T14">
+        <v>2693</v>
+      </c>
+      <c r="U14">
+        <v>2699</v>
+      </c>
+      <c r="V14">
+        <v>2707</v>
+      </c>
+      <c r="W14">
+        <v>2711</v>
+      </c>
+      <c r="X14">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>11745</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.358428955078125</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>739</v>
+      </c>
+      <c r="J15">
+        <v>743</v>
+      </c>
+      <c r="K15">
+        <v>751</v>
+      </c>
+      <c r="L15">
+        <v>757</v>
+      </c>
+      <c r="M15">
+        <v>761</v>
+      </c>
+      <c r="N15">
+        <v>769</v>
+      </c>
+      <c r="O15">
+        <v>773</v>
+      </c>
+      <c r="P15">
+        <v>787</v>
+      </c>
+      <c r="Q15">
+        <v>797</v>
+      </c>
+      <c r="R15">
+        <v>809</v>
+      </c>
+      <c r="S15">
+        <v>2749</v>
+      </c>
+      <c r="T15">
+        <v>2753</v>
+      </c>
+      <c r="U15">
+        <v>2767</v>
+      </c>
+      <c r="V15">
+        <v>2777</v>
+      </c>
+      <c r="W15">
+        <v>2789</v>
+      </c>
+      <c r="X15">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>18182</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.55487060546875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>811</v>
+      </c>
+      <c r="J16">
+        <v>821</v>
+      </c>
+      <c r="K16">
+        <v>823</v>
+      </c>
+      <c r="L16">
+        <v>827</v>
+      </c>
+      <c r="M16">
+        <v>829</v>
+      </c>
+      <c r="N16">
+        <v>839</v>
+      </c>
+      <c r="O16">
+        <v>853</v>
+      </c>
+      <c r="P16">
+        <v>857</v>
+      </c>
+      <c r="Q16">
+        <v>859</v>
+      </c>
+      <c r="R16">
+        <v>863</v>
+      </c>
+      <c r="S16">
+        <v>2833</v>
+      </c>
+      <c r="T16">
+        <v>2837</v>
+      </c>
+      <c r="U16">
+        <v>2843</v>
+      </c>
+      <c r="V16">
+        <v>2851</v>
+      </c>
+      <c r="W16">
+        <v>2857</v>
+      </c>
+      <c r="X16">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>16839</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.513885498046875</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>877</v>
+      </c>
+      <c r="J17">
+        <v>881</v>
+      </c>
+      <c r="K17">
+        <v>883</v>
+      </c>
+      <c r="L17">
+        <v>887</v>
+      </c>
+      <c r="M17">
+        <v>907</v>
+      </c>
+      <c r="N17">
+        <v>911</v>
+      </c>
+      <c r="O17">
+        <v>919</v>
+      </c>
+      <c r="P17">
+        <v>929</v>
+      </c>
+      <c r="Q17">
+        <v>937</v>
+      </c>
+      <c r="R17">
+        <v>941</v>
+      </c>
+      <c r="S17">
+        <v>2909</v>
+      </c>
+      <c r="T17">
+        <v>2917</v>
+      </c>
+      <c r="U17">
+        <v>2927</v>
+      </c>
+      <c r="V17">
+        <v>2939</v>
+      </c>
+      <c r="W17">
+        <v>2953</v>
+      </c>
+      <c r="X17">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>21492</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.6558837890625</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>18205</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.555572509765625</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>19858</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.60601806640625</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="6">
+        <v>112</v>
+      </c>
+      <c r="K20">
+        <f ca="1">J20+F12</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>13155</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.401458740234375</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="6">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K69" ca="1" si="8">J21+F13</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>15200</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.4638671875</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="6">
+        <v>128</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="N22" s="41"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>14361</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.438262939453125</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="6">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="N23" s="41"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>12510</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38177490234375</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="6">
+        <v>134</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="N24" s="41"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>8895</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.271453857421875</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="6">
+        <v>118</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>11660</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.3558349609375</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6">
+        <v>106</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="N26" s="41"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>15573</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.475250244140625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="6">
+        <v>110</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>31978</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.97589111328125</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="6">
+        <v>109</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="N28" s="41"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>11227</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.342620849609375</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="6">
+        <v>112</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>5752</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.175537109375</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="6">
+        <v>100</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="N30" s="41"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>20817</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.635284423828125</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="6">
+        <v>118</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>32182</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.98211669921875</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="6">
+        <v>117</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="41">
+        <f t="shared" ca="1" si="3"/>
+        <v>10935</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.333709716796875</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="6">
+        <v>116</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="N33" s="41"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="41">
+        <f t="shared" ref="B34:B90" ca="1" si="9">MOD(B33*G$11+G$12,G$13)</f>
+        <v>8740</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C90" ca="1" si="10">IF(D34&lt;0.5,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D90" ca="1" si="11">B34/G$13</f>
+        <v>0.2667236328125</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E90" ca="1" si="12">IF(D34&lt;0.25,0,IF(D34&lt;0.5,1,IF(D34&lt;0.75,3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="6">
+        <v>118</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="8"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>12685</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.387115478515625</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="6">
+        <v>121</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="8"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>16194</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.49420166015625</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="6">
+        <v>114</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="8"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>15187</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.463470458984375</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="6">
+        <v>114</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="8"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>15504</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.47314453125</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="6">
+        <v>105</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="8"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>22921</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.699493408203125</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="6">
+        <v>109</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="8"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>3470</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.10589599609375</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="6">
+        <v>107</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="8"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>14767</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.450653076171875</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="6">
+        <v>112</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="8"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>4540</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1385498046875</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="6">
+        <v>114</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="8"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>1349</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="11"/>
+        <v>4.1168212890625E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="6">
+        <v>115</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="8"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>29850</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.91094970703125</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="6">
+        <v>118</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="8"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>16843</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.514007568359375</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="6">
+        <v>117</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="8"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>3496</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.106689453125</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="6">
+        <v>118</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="8"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>12481</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.380889892578125</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="6">
+        <v>125</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="8"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>16486</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.50311279296875</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="6">
+        <v>106</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="8"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>12199</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.372283935546875</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="6">
+        <v>110</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="8"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>23636</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.7213134765625</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="6">
+        <v>122</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="8"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>6141</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.187408447265625</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="6">
+        <v>108</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="8"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>31986</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.97613525390625</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" s="6">
+        <v>110</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="8"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>8003</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.244232177734375</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="7"/>
+        <v>-2</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="6">
+        <v>121</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="8"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>27072</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.826171875</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="6">
+        <v>113</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="8"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>14073</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.429473876953125</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="6">
+        <v>120</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="8"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>30270</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.92376708984375</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="6">
+        <v>119</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="8"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>27807</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.848602294921875</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="6">
+        <v>111</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>25068</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.7650146484375</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="6">
+        <v>104</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="8"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>18869</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.575836181640625</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="6">
+        <v>113</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="8"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>14410</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.43975830078125</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="6">
+        <v>120</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="8"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>13243</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.404144287109375</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="6">
+        <v>113</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="8"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>12504</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.381591796875</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="6">
+        <v>120</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="8"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>19505</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.595245361328125</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="6">
+        <v>117</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="8"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>3862</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.11785888671875</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="6">
+        <v>105</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="8"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>20631</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.629608154296875</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="6">
+        <v>110</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="8"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>644</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.96533203125E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="6">
+        <v>118</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="8"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>31341</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.956451416015625</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="6">
+        <v>112</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ca="1" si="8"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>1698</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.181884765625E-2</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J68" s="6">
+        <v>114</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="8"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>24371</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.743743896484375</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="6">
+        <v>115</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="8"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>17136</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.52294921875</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>20585</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.628204345703125</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>27374</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.83538818359375</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>15247</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.465301513671875</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>7708</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.2352294921875</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>2597</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="11"/>
+        <v>7.9254150390625E-2</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>18426</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.56231689453125</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>427</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.3031005859375E-2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:F90" ca="1" si="13">(C77-C78)*ROUND(D77*10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>9121</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.278350830078125</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>27078</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.82635498046875</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>3463</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.105682373046875</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>5300</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1617431640625</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>22749</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.694244384765625</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>23634</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.72125244140625</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>31523</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.962005615234375</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>18464</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.5634765625</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>9689</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.295684814453125</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>27550</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.84075927734375</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>9855</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.300750732421875</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="41">
+        <f t="shared" ca="1" si="9"/>
+        <v>17996</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.5491943359375</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{92FD1413-7647-4C54-B1F3-CB7B3BF819CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30F0997A-3B81-43DD-8743-BA3DB747AA90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2052" yWindow="0" windowWidth="19536" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="648" windowWidth="20184" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -6888,4 +6888,300 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b"/>
+    <xsd:import namespace="6588c10b-b5ed-4e95-9d69-08b9b2ce7055"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="21" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="22" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51EC0E-1F4D-4A53-9313-26AAFAC23B23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b"/>
+    <ds:schemaRef ds:uri="6588c10b-b5ed-4e95-9d69-08b9b2ce7055"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EB18961-7277-4991-B4D1-A40B51C69814}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="648" windowWidth="20184" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="1305" windowWidth="20100" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
     <t>Rand79</t>
   </si>
   <si>
-    <t>YOur Name</t>
+    <t>Your Name</t>
   </si>
 </sst>
 </file>
@@ -1111,6 +1111,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1146,15 +1242,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1163,93 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1682,83 +1682,83 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1"/>
-    <row r="6" spans="1:11" ht="15.6">
+      <c r="C2" s="44"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="J6" s="43" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="J6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6">
         <f ca="1">Sheet1!K20</f>
-        <v>106</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+        <v>112</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1786,22 +1786,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="6">
         <f ca="1">Sheet1!K22</f>
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="39" t="s">
         <v>85</v>
       </c>
@@ -1813,22 +1813,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="6">
         <f ca="1">Sheet1!K23</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>85</v>
@@ -1846,16 +1846,16 @@
       </c>
       <c r="B11" s="6">
         <f ca="1">Sheet1!K24</f>
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -1871,11 +1871,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -1885,13 +1885,13 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -1899,34 +1899,34 @@
         <f ca="1">Sheet1!K27</f>
         <v>110</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="6">
         <f ca="1">Sheet1!K28</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1937,11 +1937,11 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="40" t="s">
         <v>85</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B17" s="6">
         <f ca="1">Sheet1!K30</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>73</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B18" s="6">
         <f ca="1">Sheet1!K31</f>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B20" s="6">
         <f ca="1">Sheet1!K33</f>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B22" s="6">
         <f ca="1">Sheet1!K35</f>
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -2052,13 +2052,13 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="6">
         <f ca="1">Sheet1!K36</f>
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -2068,7 +2068,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1">
+    <row r="24" spans="1:11" ht="14.45" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2091,13 +2091,13 @@
       </c>
       <c r="B25" s="6">
         <f ca="1">Sheet1!K38</f>
-        <v>103</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+        <v>111</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2107,25 +2107,25 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1">
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="6">
         <f ca="1">Sheet1!K40</f>
-        <v>117</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+        <v>104</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B28" s="6">
         <f ca="1">Sheet1!K41</f>
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>78</v>
@@ -2149,7 +2149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -2157,11 +2157,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B33" s="6">
         <f ca="1">Sheet1!K46</f>
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C33">
         <v>18</v>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B34" s="6">
         <f ca="1">Sheet1!K47</f>
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C34">
         <v>17</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B36" s="6">
         <f ca="1">Sheet1!K49</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36">
         <v>15</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B38" s="6">
         <f ca="1">Sheet1!K51</f>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C38">
         <v>13</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B39" s="6">
         <f ca="1">Sheet1!K52</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="32">
         <v>12</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B40" s="6">
         <f ca="1">Sheet1!K53</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B41" s="6">
         <f ca="1">Sheet1!K54</f>
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B42" s="6">
         <f ca="1">Sheet1!K55</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B43" s="6">
         <f ca="1">Sheet1!K56</f>
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B44" s="6">
         <f ca="1">Sheet1!K57</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B45" s="6">
         <f ca="1">Sheet1!K58</f>
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="B46" s="6">
         <f ca="1">Sheet1!K59</f>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B47" s="6">
         <f ca="1">Sheet1!K60</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B48" s="6">
         <f ca="1">Sheet1!K61</f>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="B49" s="6">
         <f ca="1">Sheet1!K62</f>
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2516,13 +2516,13 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="6">
         <f ca="1">Sheet1!K63</f>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2534,13 +2534,13 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" ht="15" thickTop="1">
+    <row r="51" spans="1:9" ht="15.75" thickTop="1">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="6">
         <f ca="1">Sheet1!K64</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2"/>
       <c r="H51" s="2"/>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B52" s="6">
         <f ca="1">Sheet1!K65</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2"/>
       <c r="H52" s="2"/>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="B53" s="6">
         <f ca="1">Sheet1!K66</f>
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2"/>
       <c r="H53" s="2"/>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B54" s="6">
         <f ca="1">Sheet1!K67</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2"/>
       <c r="H54" s="2"/>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B56" s="6">
         <f ca="1">Sheet1!K69</f>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2"/>
       <c r="H56" s="2"/>
@@ -2605,17 +2605,17 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -2642,18 +2642,18 @@
       <selection activeCell="B2" sqref="B2:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2667,18 +2667,18 @@
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">Sheet1!K20</f>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="100"/>
@@ -2692,7 +2692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2712,13 +2712,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="6">
         <f ca="1">Sheet1!K22</f>
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>64</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B5" s="6">
         <f ca="1">Sheet1!K23</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="54" t="s">
@@ -2768,13 +2768,13 @@
       </c>
       <c r="B6" s="6">
         <f ca="1">Sheet1!K24</f>
-        <v>134</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+        <v>142</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -2790,13 +2790,13 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2804,13 +2804,13 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -2821,32 +2821,32 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6">
         <f ca="1">Sheet1!K28</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="40" t="s">
         <v>85</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B12" s="6">
         <f ca="1">Sheet1!K30</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B13" s="6">
         <f ca="1">Sheet1!K31</f>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B15" s="6">
         <f ca="1">Sheet1!K33</f>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -2965,13 +2965,13 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="6">
         <f ca="1">Sheet1!K35</f>
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B18" s="6">
         <f ca="1">Sheet1!K36</f>
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="54" t="s">
@@ -2998,7 +2998,7 @@
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" customHeight="1">
+    <row r="19" spans="1:9" ht="14.45" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -3006,11 +3006,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3018,15 +3018,15 @@
       </c>
       <c r="B20" s="6">
         <f ca="1">Sheet1!K38</f>
-        <v>103</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+        <v>111</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -3034,11 +3034,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B22" s="6">
         <f ca="1">Sheet1!K40</f>
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>71</v>
@@ -3062,13 +3062,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="6">
         <f ca="1">Sheet1!K41</f>
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="93"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B28" s="6">
         <f ca="1">Sheet1!K46</f>
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B29" s="6">
         <f ca="1">Sheet1!K47</f>
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B31" s="6">
         <f ca="1">Sheet1!K49</f>
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B33" s="6">
         <f ca="1">Sheet1!K51</f>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C33" s="32"/>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B34" s="6">
         <f ca="1">Sheet1!K52</f>
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B35" s="6">
         <f ca="1">Sheet1!K53</f>
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B36" s="6">
         <f ca="1">Sheet1!K54</f>
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B37" s="6">
         <f ca="1">Sheet1!K55</f>
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B38" s="6">
         <f ca="1">Sheet1!K56</f>
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B39" s="6">
         <f ca="1">Sheet1!K57</f>
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B40" s="6">
         <f ca="1">Sheet1!K58</f>
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B41" s="6">
         <f ca="1">Sheet1!K59</f>
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B42" s="6">
         <f ca="1">Sheet1!K60</f>
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B43" s="6">
         <f ca="1">Sheet1!K61</f>
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="B44" s="6">
         <f ca="1">Sheet1!K62</f>
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B45" s="6">
         <f ca="1">Sheet1!K63</f>
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B46" s="6">
         <f ca="1">Sheet1!K64</f>
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B47" s="6">
         <f ca="1">Sheet1!K65</f>
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="B48" s="6">
         <f ca="1">Sheet1!K66</f>
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="B49" s="6">
         <f ca="1">Sheet1!K67</f>
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="B51" s="6">
         <f ca="1">Sheet1!K69</f>
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +3398,7 @@
       <selection activeCell="K20" sqref="K20:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="I1">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B7">
         <f>CODE(MID('Hand DQ1'!B$2,A7,1))</f>
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
@@ -3748,11 +3748,11 @@
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),G13)</f>
-        <v>28773</v>
+        <v>3063</v>
       </c>
       <c r="G11">
         <v>1103515245</v>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*G11+G12,G13)</f>
-        <v>20794</v>
+        <v>2660</v>
       </c>
       <c r="C12">
         <f ca="1">MOD(B12,2)</f>
@@ -4099,15 +4099,15 @@
       </c>
       <c r="D12">
         <f ca="1">B12/G$13</f>
-        <v>0.63458251953125</v>
+        <v>8.11767578125E-2</v>
       </c>
       <c r="E12">
         <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f ca="1">(C12-C13)*ROUND(D12*10,0)</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>12345</v>
@@ -4170,19 +4170,19 @@
       </c>
       <c r="B13" s="41">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*G$11+G$12,G$13)</f>
-        <v>29163</v>
+        <v>5325</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D33" ca="1" si="5">B13/G$13</f>
-        <v>0.889984130859375</v>
+        <v>0.162506103515625</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F76" ca="1" si="7">(C13-C14)*ROUND(D13*10,0)</f>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>19272</v>
+        <v>386</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.588134765625</v>
+        <v>1.177978515625E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>13</v>
@@ -4325,23 +4325,23 @@
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>11745</v>
+        <v>28819</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.358428955078125</v>
+        <v>0.879486083984375</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>18182</v>
+        <v>26832</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="4"/>
@@ -4409,15 +4409,15 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55487060546875</v>
+        <v>0.81884765625</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -4477,19 +4477,19 @@
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>16839</v>
+        <v>12489</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.513885498046875</v>
+        <v>0.381134033203125</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="7"/>
@@ -4553,19 +4553,19 @@
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>21492</v>
+        <v>13262</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6558837890625</v>
+        <v>0.40472412109375</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="7"/>
@@ -4578,19 +4578,19 @@
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>18205</v>
+        <v>751</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.555572509765625</v>
+        <v>2.2918701171875E-2</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="7"/>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>19858</v>
+        <v>16892</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="4"/>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60601806640625</v>
+        <v>0.5155029296875</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="6"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>29</v>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="K20">
         <f ca="1">J20+F12</f>
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>13155</v>
+        <v>4229</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
@@ -4646,11 +4646,11 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.401458740234375</v>
+        <v>0.129058837890625</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="7"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>15200</v>
+        <v>16090</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="4"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4638671875</v>
+        <v>0.49102783203125</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="6"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>44</v>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="8"/>
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N22" s="41"/>
     </row>
@@ -4709,23 +4709,23 @@
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>14361</v>
+        <v>24331</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.438262939453125</v>
+        <v>0.742523193359375</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>14</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="8"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N23" s="41"/>
     </row>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>12510</v>
+        <v>488</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="4"/>
@@ -4753,11 +4753,11 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38177490234375</v>
+        <v>1.4892578125E-2</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="8"/>
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="N24" s="41"/>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>8895</v>
+        <v>12289</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.271453857421875</v>
+        <v>0.375030517578125</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="6"/>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>38</v>
@@ -4817,19 +4817,19 @@
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>11660</v>
+        <v>28326</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3558349609375</v>
+        <v>0.86444091796875</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
@@ -4853,23 +4853,23 @@
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>15573</v>
+        <v>24807</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.475250244140625</v>
+        <v>0.757049560546875</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>31978</v>
+        <v>21652</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
@@ -4897,15 +4897,15 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97589111328125</v>
+        <v>0.6607666015625</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>30</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="8"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N28" s="41"/>
     </row>
@@ -4925,19 +4925,19 @@
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>11227</v>
+        <v>19261</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.342620849609375</v>
+        <v>0.587799072265625</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
@@ -4961,23 +4961,23 @@
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>5752</v>
+        <v>20274</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.175537109375</v>
+        <v>0.61871337890625</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>47</v>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N30" s="41"/>
     </row>
@@ -4997,19 +4997,19 @@
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>20817</v>
+        <v>9347</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.635284423828125</v>
+        <v>0.285247802734375</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N31" s="41"/>
     </row>
@@ -5033,23 +5033,23 @@
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>32182</v>
+        <v>9728</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98211669921875</v>
+        <v>0.296875</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>2</v>
@@ -5069,23 +5069,23 @@
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="3"/>
-        <v>10935</v>
+        <v>24121</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.333709716796875</v>
+        <v>0.736114501953125</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>6</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="8"/>
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N33" s="41"/>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B34" s="41">
         <f t="shared" ref="B34:B90" ca="1" si="9">MOD(B33*G$11+G$12,G$13)</f>
-        <v>8740</v>
+        <v>11390</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C90" ca="1" si="10">IF(D34&lt;0.5,0,1)</f>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D90" ca="1" si="11">B34/G$13</f>
-        <v>0.2667236328125</v>
+        <v>0.34759521484375</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E90" ca="1" si="12">IF(D34&lt;0.25,0,IF(D34&lt;0.5,1,IF(D34&lt;0.75,3,4)))</f>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>12685</v>
+        <v>1503</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="10"/>
@@ -5148,11 +5148,11 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="11"/>
-        <v>0.387115478515625</v>
+        <v>4.5867919921875E-2</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="8"/>
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>16194</v>
+        <v>8748</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="10"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49420166015625</v>
+        <v>0.2669677734375</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="12"/>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="8"/>
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>15187</v>
+        <v>9461</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="10"/>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="11"/>
-        <v>0.463470458984375</v>
+        <v>0.288726806640625</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="12"/>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B38" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>15504</v>
+        <v>4746</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="10"/>
@@ -5253,15 +5253,15 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47314453125</v>
+        <v>0.14483642578125</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="7"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>15</v>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="8"/>
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5280,23 +5280,23 @@
       </c>
       <c r="B39" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>22921</v>
+        <v>8443</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="11"/>
-        <v>0.699493408203125</v>
+        <v>0.257659912109375</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>50</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="B40" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>3470</v>
+        <v>13592</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="10"/>
@@ -5323,11 +5323,11 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10589599609375</v>
+        <v>0.414794921875</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="7"/>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>14767</v>
+        <v>7025</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="10"/>
@@ -5358,15 +5358,15 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="11"/>
-        <v>0.450653076171875</v>
+        <v>0.214385986328125</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>10</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="8"/>
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -5385,19 +5385,19 @@
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>4540</v>
+        <v>19798</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1385498046875</v>
+        <v>0.60418701171875</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="7"/>
@@ -5420,23 +5420,23 @@
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>1349</v>
+        <v>20951</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1168212890625E-2</v>
+        <v>0.639373779296875</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>23</v>
@@ -5455,23 +5455,23 @@
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>29850</v>
+        <v>2756</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="11"/>
-        <v>0.91094970703125</v>
+        <v>8.41064453125E-2</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>34</v>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>16843</v>
+        <v>32173</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="10"/>
@@ -5498,15 +5498,15 @@
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="11"/>
-        <v>0.514007568359375</v>
+        <v>0.981842041015625</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>49</v>
@@ -5525,23 +5525,23 @@
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>3496</v>
+        <v>26850</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="11"/>
-        <v>0.106689453125</v>
+        <v>0.81939697265625</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>43</v>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="8"/>
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>12481</v>
+        <v>13427</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="10"/>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="11"/>
-        <v>0.380889892578125</v>
+        <v>0.409759521484375</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="12"/>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>31</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="8"/>
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5595,23 +5595,23 @@
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>16486</v>
+        <v>3888</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="11"/>
-        <v>0.50311279296875</v>
+        <v>0.11865234375</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>3</v>
@@ -5630,23 +5630,23 @@
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>12199</v>
+        <v>18345</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="11"/>
-        <v>0.372283935546875</v>
+        <v>0.559844970703125</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>41</v>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="8"/>
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5665,23 +5665,23 @@
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>23636</v>
+        <v>12590</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7213134765625</v>
+        <v>0.38421630859375</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>4</v>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>6141</v>
+        <v>9423</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="10"/>
@@ -5708,15 +5708,15 @@
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="11"/>
-        <v>0.187408447265625</v>
+        <v>0.287567138671875</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="7"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>35</v>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="8"/>
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>31986</v>
+        <v>28252</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="10"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97613525390625</v>
+        <v>0.8621826171875</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="12"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>18</v>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="8"/>
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>8003</v>
+        <v>13669</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="10"/>
@@ -5778,15 +5778,15 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="11"/>
-        <v>0.244232177734375</v>
+        <v>0.417144775390625</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="7"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>24</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="8"/>
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5805,23 +5805,23 @@
       </c>
       <c r="B54" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>27072</v>
+        <v>12858</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="11"/>
-        <v>0.826171875</v>
+        <v>0.39239501953125</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>19</v>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="8"/>
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B55" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>14073</v>
+        <v>16107</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="10"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="11"/>
-        <v>0.429473876953125</v>
+        <v>0.491546630859375</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="12"/>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>25</v>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="8"/>
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5875,23 +5875,23 @@
       </c>
       <c r="B56" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>30270</v>
+        <v>5192</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="11"/>
-        <v>0.92376708984375</v>
+        <v>0.158447265625</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>46</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="8"/>
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="B57" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>27807</v>
+        <v>17121</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="10"/>
@@ -5918,15 +5918,15 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="11"/>
-        <v>0.848602294921875</v>
+        <v>0.522491455078125</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>8</v>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="8"/>
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5945,23 +5945,23 @@
       </c>
       <c r="B58" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>25068</v>
+        <v>14342</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7650146484375</v>
+        <v>0.43768310546875</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>33</v>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B59" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>18869</v>
+        <v>24263</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="10"/>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="11"/>
-        <v>0.575836181640625</v>
+        <v>0.740447998046875</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="12"/>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>7</v>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="B60" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>14410</v>
+        <v>11508</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="10"/>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43975830078125</v>
+        <v>0.3511962890625</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="12"/>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="8"/>
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="B61" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>13243</v>
+        <v>11293</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="10"/>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="11"/>
-        <v>0.404144287109375</v>
+        <v>0.344635009765625</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="12"/>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>26</v>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6085,23 +6085,23 @@
       </c>
       <c r="B62" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>12504</v>
+        <v>20114</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="11"/>
-        <v>0.381591796875</v>
+        <v>0.61383056640625</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>36</v>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="8"/>
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6120,23 +6120,23 @@
       </c>
       <c r="B63" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>19505</v>
+        <v>8291</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="11"/>
-        <v>0.595245361328125</v>
+        <v>0.253021240234375</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>16</v>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="8"/>
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="B64" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>3862</v>
+        <v>9312</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="10"/>
@@ -6163,15 +6163,15 @@
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="11"/>
-        <v>0.11785888671875</v>
+        <v>0.2841796875</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>28</v>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="8"/>
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="B65" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>20631</v>
+        <v>27929</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="10"/>
@@ -6198,15 +6198,15 @@
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="11"/>
-        <v>0.629608154296875</v>
+        <v>0.852325439453125</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>37</v>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="8"/>
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6225,19 +6225,19 @@
       </c>
       <c r="B66" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>644</v>
+        <v>16862</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="11"/>
-        <v>1.96533203125E-2</v>
+        <v>0.51458740234375</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="7"/>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="B67" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>31341</v>
+        <v>24511</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="10"/>
@@ -6268,15 +6268,15 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="11"/>
-        <v>0.956451416015625</v>
+        <v>0.748016357421875</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>42</v>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="B68" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>1698</v>
+        <v>9868</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="10"/>
@@ -6303,15 +6303,15 @@
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="11"/>
-        <v>5.181884765625E-2</v>
+        <v>0.3011474609375</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>51</v>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B69" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>24371</v>
+        <v>16853</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="10"/>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="11"/>
-        <v>0.743743896484375</v>
+        <v>0.514312744140625</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="12"/>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>12</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="8"/>
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6365,19 +6365,19 @@
       </c>
       <c r="B70" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>17136</v>
+        <v>7658</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="11"/>
-        <v>0.52294921875</v>
+        <v>0.23370361328125</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="7"/>
@@ -6390,19 +6390,19 @@
       </c>
       <c r="B71" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>20585</v>
+        <v>14555</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="11"/>
-        <v>0.628204345703125</v>
+        <v>0.444183349609375</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="7"/>
@@ -6415,23 +6415,23 @@
       </c>
       <c r="B72" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>27374</v>
+        <v>8056</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="11"/>
-        <v>0.83538818359375</v>
+        <v>0.245849609375</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="B73" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>15247</v>
+        <v>9809</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="10"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="11"/>
-        <v>0.465301513671875</v>
+        <v>0.299346923828125</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="12"/>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B74" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>7708</v>
+        <v>11958</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="10"/>
@@ -6473,11 +6473,11 @@
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="11"/>
-        <v>0.2352294921875</v>
+        <v>0.36492919921875</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="7"/>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="B75" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>2597</v>
+        <v>1975</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="10"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9254150390625E-2</v>
+        <v>6.0272216796875E-2</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="12"/>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6515,23 +6515,23 @@
       </c>
       <c r="B76" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>18426</v>
+        <v>15140</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="11"/>
-        <v>0.56231689453125</v>
+        <v>0.4620361328125</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6540,23 +6540,23 @@
       </c>
       <c r="B77" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>427</v>
+        <v>22157</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3031005859375E-2</v>
+        <v>0.676177978515625</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77">
         <f t="shared" ref="F77:F90" ca="1" si="13">(C77-C78)*ROUND(D77*10,0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="B78" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="10"/>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="11"/>
-        <v>2.44140625E-4</v>
+        <v>2.01416015625E-3</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="12"/>
@@ -6590,23 +6590,23 @@
       </c>
       <c r="B79" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>9121</v>
+        <v>26707</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="11"/>
-        <v>0.278350830078125</v>
+        <v>0.815032958984375</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="13"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B80" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>27078</v>
+        <v>26000</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="10"/>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82635498046875</v>
+        <v>0.79345703125</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="12"/>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6640,19 +6640,19 @@
       </c>
       <c r="B81" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>3463</v>
+        <v>20105</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="11"/>
-        <v>0.105682373046875</v>
+        <v>0.613555908203125</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="13"/>
@@ -6665,23 +6665,23 @@
       </c>
       <c r="B82" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>5300</v>
+        <v>24206</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1617431640625</v>
+        <v>0.73870849609375</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="13"/>
-        <v>-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6690,23 +6690,23 @@
       </c>
       <c r="B83" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>22749</v>
+        <v>13999</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="11"/>
-        <v>0.694244384765625</v>
+        <v>0.427215576171875</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="B84" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>23634</v>
+        <v>19132</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="10"/>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="11"/>
-        <v>0.72125244140625</v>
+        <v>0.5838623046875</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="12"/>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="B85" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>31523</v>
+        <v>19013</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="10"/>
@@ -6748,11 +6748,11 @@
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="11"/>
-        <v>0.962005615234375</v>
+        <v>0.580230712890625</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="13"/>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="B86" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>18464</v>
+        <v>21914</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="10"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5634765625</v>
+        <v>0.66876220703125</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="12"/>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="B87" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>9689</v>
+        <v>3787</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="10"/>
@@ -6798,15 +6798,15 @@
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="11"/>
-        <v>0.295684814453125</v>
+        <v>0.115570068359375</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="13"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="B88" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>27550</v>
+        <v>22184</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="10"/>
@@ -6823,15 +6823,15 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84075927734375</v>
+        <v>0.677001953125</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6840,23 +6840,23 @@
       </c>
       <c r="B89" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>9855</v>
+        <v>17857</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="11"/>
-        <v>0.300750732421875</v>
+        <v>0.544952392578125</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="13"/>
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6865,23 +6865,23 @@
       </c>
       <c r="B90" s="41">
         <f t="shared" ca="1" si="9"/>
-        <v>17996</v>
+        <v>12646</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5491943359375</v>
+        <v>0.38592529296875</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6891,6 +6891,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7130,15 +7139,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7149,6 +7149,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51EC0E-1F4D-4A53-9313-26AAFAC23B23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7168,14 +7176,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>

--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EB18961-7277-4991-B4D1-A40B51C69814}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48C2B13F-3069-418D-90E6-F118965F33BC}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1305" windowWidth="20100" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2115" windowWidth="20070" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Formulas DQ2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -315,9 +338,6 @@
     <t>Create a histogram using the Excel (clustered) column chart (2D or 3D).</t>
   </si>
   <si>
-    <t>Now repeat the first part, but using Excel formulas and charts.</t>
-  </si>
-  <si>
     <t>Click on links for video instruction.</t>
   </si>
   <si>
@@ -577,6 +597,9 @@
   </si>
   <si>
     <t>Your Name</t>
+  </si>
+  <si>
+    <t>Repeat using formulas. You MUST complete "Hand DQ 1" first!</t>
   </si>
 </sst>
 </file>
@@ -1111,102 +1134,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1242,6 +1169,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1250,6 +1186,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1299,7 +1322,64 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF339933"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1322,6 +1402,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF339933"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1334,6 +1419,102 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2796791" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523B523B-74AB-4342-84BC-7508BA77C4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="3133725"/>
+          <a:ext cx="2796791" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>The frequency numbers must be all correct</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="339933"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>green</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t> before "Formulas DQ 2" will show</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>correctly.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1413,6 +1594,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C518383-B089-426F-8177-65A50E98F95E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="266700"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1682,7 +1918,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,41 +1926,41 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D1" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:11" ht="15.75">
@@ -1734,17 +1970,17 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="J6" s="75" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="J6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="76"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1754,11 +1990,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1797,13 +2033,13 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="15"/>
       <c r="J9" s="11" t="s">
@@ -1824,14 +2060,14 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>59</v>
@@ -1849,13 +2085,13 @@
         <v>142</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="D11" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -1871,11 +2107,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -1885,11 +2121,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -1899,11 +2135,11 @@
         <f ca="1">Sheet1!K27</f>
         <v>110</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -1916,14 +2152,14 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
@@ -1937,13 +2173,13 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -2093,11 +2329,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2107,11 +2343,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
@@ -2121,11 +2357,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2146,7 +2382,7 @@
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
       <c r="I28" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1">
@@ -2157,11 +2393,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2605,20 +2841,20 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2631,6 +2867,26 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{E6DB032A-3596-4684-BCEA-B31F9EBB35F6}">
+            <xm:f>G18=Sheet2!$A1</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color rgb="FF339933"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G18:G23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2639,7 +2895,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B51"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2649,8 +2905,8 @@
     <col min="4" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
@@ -2661,16 +2917,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="E1" s="97"/>
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -2730,7 +2986,7 @@
       <c r="F4" s="34"/>
       <c r="G4" s="35"/>
       <c r="H4" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>57</v>
@@ -2770,11 +3026,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -2790,11 +3046,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -2804,11 +3060,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -2821,14 +3077,14 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
@@ -2842,16 +3098,16 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="102" t="s">
         <v>85</v>
-      </c>
-      <c r="H10" s="102" t="s">
-        <v>86</v>
       </c>
       <c r="I10" s="102"/>
       <c r="J10" s="102"/>
@@ -2880,7 +3136,7 @@
         <v>77</v>
       </c>
       <c r="I11" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
@@ -3006,11 +3262,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3020,11 +3276,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
@@ -3034,11 +3290,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3059,7 +3315,7 @@
       <c r="G22" s="90"/>
       <c r="H22" s="91"/>
       <c r="I22" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1">
@@ -3369,7 +3625,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{DFFB5F44-41EC-4BE2-B855-809370786DC3}">
+          <x14:cfRule type="expression" priority="2" id="{DFFB5F44-41EC-4BE2-B855-809370786DC3}">
             <xm:f>'Hand DQ1'!$B$2="Your Name"</xm:f>
             <x14:dxf>
               <font>
@@ -3384,6 +3640,22 @@
           </x14:cfRule>
           <xm:sqref>A1:XFD1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{4321C13B-9D9E-4142-9612-9189A609C798}">
+            <xm:f>Sheet2!$D$1=FALSE</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.34998626667073579"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A3:XFD1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3391,6 +3663,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206DDE0-65A2-4525-995F-49F65095EBC3}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" cm="1">
+        <f t="array" aca="1" ref="A1:A2" ca="1">FREQUENCY('Hand DQ1'!B7:B56,'Hand DQ1'!F18:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" ref="B1:B6">'Hand DQ1'!G18:G23</f>
+        <v>0</v>
+      </c>
+      <c r="D1" t="e" cm="1">
+        <f t="array" aca="1" ref="D1" ca="1">AND(_xlfn.ANCHORARRAY(A1)=_xlfn.ANCHORARRAY(B1))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <f ca="1"/>
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4523-7F16-4EE5-BC77-7F896A2520B8}">
   <dimension ref="A1:X90"/>
   <sheetViews>
@@ -4024,7 +4354,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),G13)</f>
@@ -4087,7 +4417,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*G11+G12,G13)</f>
@@ -4166,7 +4496,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="41">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*G$11+G$12,G$13)</f>
@@ -4245,7 +4575,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4321,7 +4651,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4397,7 +4727,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4473,7 +4803,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4549,7 +4879,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4574,7 +4904,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4599,7 +4929,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4634,7 +4964,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4669,7 +4999,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4705,7 +5035,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4741,7 +5071,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4777,7 +5107,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4813,7 +5143,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4849,7 +5179,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4885,7 +5215,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4921,7 +5251,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4957,7 +5287,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4993,7 +5323,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5029,7 +5359,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5065,7 +5395,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5101,7 +5431,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="41">
         <f t="shared" ref="B34:B90" ca="1" si="9">MOD(B33*G$11+G$12,G$13)</f>
@@ -5136,7 +5466,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5171,7 +5501,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5206,7 +5536,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5241,7 +5571,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5276,7 +5606,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5311,7 +5641,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5346,7 +5676,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5381,7 +5711,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5416,7 +5746,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5451,7 +5781,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5486,7 +5816,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5521,7 +5851,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5556,7 +5886,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5591,7 +5921,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5626,7 +5956,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5661,7 +5991,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5696,7 +6026,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5731,7 +6061,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5766,7 +6096,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5801,7 +6131,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5836,7 +6166,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5871,7 +6201,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5906,7 +6236,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5941,7 +6271,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5976,7 +6306,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6011,7 +6341,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6046,7 +6376,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6081,7 +6411,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6116,7 +6446,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6151,7 +6481,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6186,7 +6516,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6221,7 +6551,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6256,7 +6586,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6291,7 +6621,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6326,7 +6656,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6361,7 +6691,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6386,7 +6716,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6411,7 +6741,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6436,7 +6766,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6461,7 +6791,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6486,7 +6816,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6511,7 +6841,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6536,7 +6866,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6561,7 +6891,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6586,7 +6916,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6611,7 +6941,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6636,7 +6966,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6661,7 +6991,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6686,7 +7016,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B83" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6711,7 +7041,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B84" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6736,7 +7066,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B85" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6761,7 +7091,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6786,7 +7116,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B87" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6811,7 +7141,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6836,7 +7166,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B89" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6861,7 +7191,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B90" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6900,6 +7230,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7139,15 +7478,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
   <ds:schemaRefs>
@@ -7157,6 +7487,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B51EC0E-1F4D-4A53-9313-26AAFAC23B23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7174,14 +7514,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48C2B13F-3069-418D-90E6-F118965F33BC}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B0B934B1-A772-402C-B04E-AA35AFAF6CD9}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2115" windowWidth="20070" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="3360" windowWidth="17280" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Formulas DQ2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1134,6 +1134,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1169,15 +1265,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1186,93 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1322,14 +1322,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF339933"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1352,43 +1345,10 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF339933"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1933,34 +1893,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:11" ht="15.75">
@@ -1970,17 +1930,17 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="J6" s="43" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="J6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1990,11 +1950,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -2033,11 +1993,11 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2060,11 +2020,11 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>84</v>
@@ -2085,13 +2045,13 @@
         <v>142</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2107,11 +2067,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2121,11 +2081,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -2135,11 +2095,11 @@
         <f ca="1">Sheet1!K27</f>
         <v>110</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -2152,11 +2112,11 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
         <v>84</v>
@@ -2173,11 +2133,11 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="40" t="s">
         <v>84</v>
       </c>
@@ -2329,11 +2289,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2343,11 +2303,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
@@ -2357,11 +2317,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2393,11 +2353,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2841,20 +2801,20 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$B$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2923,10 +2883,10 @@
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -3026,11 +2986,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3046,11 +3006,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -3060,11 +3020,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -3077,11 +3037,11 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>84</v>
@@ -3098,11 +3058,11 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="40" t="s">
         <v>84</v>
       </c>
@@ -3262,11 +3222,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3276,11 +3236,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
@@ -3290,11 +3250,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3666,9 +3626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206DDE0-65A2-4525-995F-49F65095EBC3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -7221,21 +7179,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7479,19 +7437,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B0B934B1-A772-402C-B04E-AA35AFAF6CD9}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79214B4B-1A7D-4A08-80A0-D6972B56B6C7}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3360" windowWidth="17280" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="23010" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Formulas DQ2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1134,102 +1134,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1265,6 +1169,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1273,6 +1186,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1877,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1893,34 +1893,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:11" ht="15.75">
@@ -1930,17 +1930,17 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="J6" s="75" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="J6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="76"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -1950,11 +1950,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1993,11 +1993,11 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2020,11 +2020,11 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>84</v>
@@ -2045,13 +2045,13 @@
         <v>142</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2067,11 +2067,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2081,11 +2081,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -2095,11 +2095,11 @@
         <f ca="1">Sheet1!K27</f>
         <v>110</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -2112,11 +2112,11 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
         <v>84</v>
@@ -2133,11 +2133,11 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="40" t="s">
         <v>84</v>
       </c>
@@ -2289,11 +2289,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2303,11 +2303,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
@@ -2317,11 +2317,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2353,11 +2353,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2801,17 +2801,17 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -2854,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1137E8F-1C1D-4812-96CD-8ACE7317344E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -2883,10 +2883,10 @@
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -2986,11 +2986,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3006,11 +3006,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -3020,11 +3020,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -3037,11 +3037,11 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>84</v>
@@ -3058,11 +3058,11 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="40" t="s">
         <v>84</v>
       </c>
@@ -3222,11 +3222,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3236,11 +3236,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
@@ -3250,11 +3250,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -7179,21 +7179,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7437,19 +7437,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79214B4B-1A7D-4A08-80A0-D6972B56B6C7}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{15AC572D-ED81-4219-9814-E3EDAF3B0D69}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="23010" windowHeight="12510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="588" windowWidth="20112" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -1134,6 +1134,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1169,15 +1265,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1186,93 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1466,6 +1466,132 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>correctly.</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3957302" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D716DF00-76B2-47D4-8EBD-1DADDE1B8CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="2171700"/>
+          <a:ext cx="3957302" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>There was confusion about bin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>width and using decimals so after</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>the videos were made I changed this to use decimal temps. This is</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>important</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> for understanding what is being done here. The videos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>still apply.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1877,84 +2003,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
+      <c r="D1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:11" ht="15.75">
+      <c r="C2" s="44"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1"/>
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="J6" s="43" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="J6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6">
         <f ca="1">Sheet1!K20</f>
-        <v>112</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+        <v>112.52</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -1962,13 +2088,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6">
         <f ca="1">Sheet1!K21</f>
-        <v>100</v>
+        <v>100.13</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1982,22 +2108,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="6">
         <f ca="1">Sheet1!K22</f>
-        <v>128</v>
+        <v>128.49</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="39" t="s">
         <v>84</v>
       </c>
@@ -2009,22 +2135,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="6">
         <f ca="1">Sheet1!K23</f>
-        <v>120</v>
+        <v>120.74</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>84</v>
@@ -2042,16 +2168,16 @@
       </c>
       <c r="B11" s="6">
         <f ca="1">Sheet1!K24</f>
-        <v>142</v>
+        <v>142.01</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2065,13 +2191,13 @@
       </c>
       <c r="B12" s="6">
         <f ca="1">Sheet1!K25</f>
-        <v>118</v>
-      </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+        <v>118.38</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2079,65 +2205,65 @@
       </c>
       <c r="B13" s="6">
         <f ca="1">Sheet1!K26</f>
-        <v>106</v>
-      </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+        <v>106.86</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="6">
         <f ca="1">Sheet1!K27</f>
-        <v>110</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+        <v>110.76</v>
+      </c>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="6">
         <f ca="1">Sheet1!K28</f>
-        <v>114</v>
+        <v>114.66</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="6">
         <f ca="1">Sheet1!K29</f>
-        <v>112</v>
+        <v>112.59</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="40" t="s">
         <v>84</v>
       </c>
@@ -2149,7 +2275,7 @@
       </c>
       <c r="B17" s="6">
         <f ca="1">Sheet1!K30</f>
-        <v>95</v>
+        <v>95.62</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>73</v>
@@ -2173,7 +2299,7 @@
       </c>
       <c r="B18" s="6">
         <f ca="1">Sheet1!K31</f>
-        <v>125</v>
+        <v>125.29</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -2189,7 +2315,7 @@
       </c>
       <c r="B19" s="6">
         <f ca="1">Sheet1!K32</f>
-        <v>117</v>
+        <v>117.3</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -2206,7 +2332,7 @@
       </c>
       <c r="B20" s="6">
         <f ca="1">Sheet1!K33</f>
-        <v>112</v>
+        <v>112.74</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -2222,7 +2348,7 @@
       </c>
       <c r="B21" s="6">
         <f ca="1">Sheet1!K34</f>
-        <v>118</v>
+        <v>118.35</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -2238,7 +2364,7 @@
       </c>
       <c r="B22" s="6">
         <f ca="1">Sheet1!K35</f>
-        <v>121</v>
+        <v>121.05</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -2248,13 +2374,13 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="6">
         <f ca="1">Sheet1!K36</f>
-        <v>114</v>
+        <v>114.27</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -2264,13 +2390,13 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:11" ht="14.45" customHeight="1">
+    <row r="24" spans="1:11" ht="14.4" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6">
         <f ca="1">Sheet1!K37</f>
-        <v>114</v>
+        <v>114.29</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="54" t="s">
@@ -2287,13 +2413,13 @@
       </c>
       <c r="B25" s="6">
         <f ca="1">Sheet1!K38</f>
-        <v>111</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+        <v>111.14</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2301,27 +2427,27 @@
       </c>
       <c r="B26" s="6">
         <f ca="1">Sheet1!K39</f>
-        <v>109</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+        <v>109.26</v>
+      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="6">
         <f ca="1">Sheet1!K40</f>
-        <v>104</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+        <v>104.41</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2329,7 +2455,7 @@
       </c>
       <c r="B28" s="6">
         <f ca="1">Sheet1!K41</f>
-        <v>119</v>
+        <v>119.21</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>78</v>
@@ -2345,19 +2471,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+    <row r="29" spans="1:11" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="6">
         <f ca="1">Sheet1!K42</f>
-        <v>114</v>
-      </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
+        <v>114.6</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2365,7 +2491,7 @@
       </c>
       <c r="B30" s="6">
         <f ca="1">Sheet1!K43</f>
-        <v>115</v>
+        <v>115.64</v>
       </c>
       <c r="E30" s="2"/>
       <c r="H30" s="2"/>
@@ -2376,7 +2502,7 @@
       </c>
       <c r="B31" s="6">
         <f ca="1">Sheet1!K44</f>
-        <v>118</v>
+        <v>118.08</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -2394,7 +2520,7 @@
       </c>
       <c r="B32" s="6">
         <f ca="1">Sheet1!K45</f>
-        <v>117</v>
+        <v>117.98</v>
       </c>
       <c r="C32">
         <v>19</v>
@@ -2412,7 +2538,7 @@
       </c>
       <c r="B33" s="6">
         <f ca="1">Sheet1!K46</f>
-        <v>118</v>
+        <v>118.82</v>
       </c>
       <c r="C33">
         <v>18</v>
@@ -2430,7 +2556,7 @@
       </c>
       <c r="B34" s="6">
         <f ca="1">Sheet1!K47</f>
-        <v>125</v>
+        <v>125.41</v>
       </c>
       <c r="C34">
         <v>17</v>
@@ -2448,7 +2574,7 @@
       </c>
       <c r="B35" s="6">
         <f ca="1">Sheet1!K48</f>
-        <v>106</v>
+        <v>106.12</v>
       </c>
       <c r="C35">
         <v>16</v>
@@ -2466,7 +2592,7 @@
       </c>
       <c r="B36" s="6">
         <f ca="1">Sheet1!K49</f>
-        <v>108</v>
+        <v>108.56</v>
       </c>
       <c r="C36">
         <v>15</v>
@@ -2484,7 +2610,7 @@
       </c>
       <c r="B37" s="6">
         <f ca="1">Sheet1!K50</f>
-        <v>122</v>
+        <v>122.38</v>
       </c>
       <c r="C37">
         <v>14</v>
@@ -2502,7 +2628,7 @@
       </c>
       <c r="B38" s="6">
         <f ca="1">Sheet1!K51</f>
-        <v>114</v>
+        <v>114.29</v>
       </c>
       <c r="C38">
         <v>13</v>
@@ -2520,7 +2646,7 @@
       </c>
       <c r="B39" s="6">
         <f ca="1">Sheet1!K52</f>
-        <v>109</v>
+        <v>109.86</v>
       </c>
       <c r="C39" s="32">
         <v>12</v>
@@ -2538,7 +2664,7 @@
       </c>
       <c r="B40" s="6">
         <f ca="1">Sheet1!K53</f>
-        <v>121</v>
+        <v>121.42</v>
       </c>
       <c r="C40">
         <v>11</v>
@@ -2556,7 +2682,7 @@
       </c>
       <c r="B41" s="6">
         <f ca="1">Sheet1!K54</f>
-        <v>121</v>
+        <v>121.39</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -2574,7 +2700,7 @@
       </c>
       <c r="B42" s="6">
         <f ca="1">Sheet1!K55</f>
-        <v>120</v>
+        <v>120.49</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -2592,7 +2718,7 @@
       </c>
       <c r="B43" s="6">
         <f ca="1">Sheet1!K56</f>
-        <v>118</v>
+        <v>118.16</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -2610,7 +2736,7 @@
       </c>
       <c r="B44" s="6">
         <f ca="1">Sheet1!K57</f>
-        <v>117</v>
+        <v>117.52</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -2628,7 +2754,7 @@
       </c>
       <c r="B45" s="6">
         <f ca="1">Sheet1!K58</f>
-        <v>104</v>
+        <v>104.44</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -2646,7 +2772,7 @@
       </c>
       <c r="B46" s="6">
         <f ca="1">Sheet1!K59</f>
-        <v>110</v>
+        <v>110.74</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -2664,7 +2790,7 @@
       </c>
       <c r="B47" s="6">
         <f ca="1">Sheet1!K60</f>
-        <v>129</v>
+        <v>129.35</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2682,7 +2808,7 @@
       </c>
       <c r="B48" s="6">
         <f ca="1">Sheet1!K61</f>
-        <v>113</v>
+        <v>113.34</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2700,7 +2826,7 @@
       </c>
       <c r="B49" s="6">
         <f ca="1">Sheet1!K62</f>
-        <v>120</v>
+        <v>120.61</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2712,13 +2838,13 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
+    <row r="50" spans="1:9" ht="15" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="6">
         <f ca="1">Sheet1!K63</f>
-        <v>117</v>
+        <v>117.25</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2730,13 +2856,13 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickTop="1">
+    <row r="51" spans="1:9" ht="15" thickTop="1">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="6">
         <f ca="1">Sheet1!K64</f>
-        <v>103</v>
+        <v>103.28</v>
       </c>
       <c r="E51" s="2"/>
       <c r="H51" s="2"/>
@@ -2747,7 +2873,7 @@
       </c>
       <c r="B52" s="6">
         <f ca="1">Sheet1!K65</f>
-        <v>115</v>
+        <v>115.85</v>
       </c>
       <c r="E52" s="2"/>
       <c r="H52" s="2"/>
@@ -2758,7 +2884,7 @@
       </c>
       <c r="B53" s="6">
         <f ca="1">Sheet1!K66</f>
-        <v>114</v>
+        <v>114.51</v>
       </c>
       <c r="E53" s="2"/>
       <c r="H53" s="2"/>
@@ -2769,7 +2895,7 @@
       </c>
       <c r="B54" s="6">
         <f ca="1">Sheet1!K67</f>
-        <v>119</v>
+        <v>119.75</v>
       </c>
       <c r="E54" s="2"/>
       <c r="H54" s="2"/>
@@ -2780,7 +2906,7 @@
       </c>
       <c r="B55" s="6">
         <f ca="1">Sheet1!K68</f>
-        <v>114</v>
+        <v>114.3</v>
       </c>
       <c r="E55" s="2"/>
       <c r="H55" s="2"/>
@@ -2791,7 +2917,7 @@
       </c>
       <c r="B56" s="6">
         <f ca="1">Sheet1!K69</f>
-        <v>112</v>
+        <v>112.51</v>
       </c>
       <c r="E56" s="2"/>
       <c r="H56" s="2"/>
@@ -2801,17 +2927,17 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -2854,22 +2980,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1137E8F-1C1D-4812-96CD-8ACE7317344E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2883,18 +3009,18 @@
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="6">
         <f ca="1">Sheet1!K20</f>
-        <v>112</v>
+        <v>112.52</v>
       </c>
       <c r="D2" s="99"/>
       <c r="E2" s="100"/>
@@ -2908,13 +3034,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="6">
         <f ca="1">Sheet1!K21</f>
-        <v>100</v>
+        <v>100.13</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -2928,13 +3054,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="6">
         <f ca="1">Sheet1!K22</f>
-        <v>128</v>
+        <v>128.49</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>64</v>
@@ -2961,7 +3087,7 @@
       </c>
       <c r="B5" s="6">
         <f ca="1">Sheet1!K23</f>
-        <v>120</v>
+        <v>120.74</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="54" t="s">
@@ -2984,13 +3110,13 @@
       </c>
       <c r="B6" s="6">
         <f ca="1">Sheet1!K24</f>
-        <v>142</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+        <v>142.01</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3004,65 +3130,65 @@
       </c>
       <c r="B7" s="6">
         <f ca="1">Sheet1!K25</f>
-        <v>118</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+        <v>118.38</v>
+      </c>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6">
         <f ca="1">Sheet1!K26</f>
-        <v>106</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+        <v>106.86</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="6">
         <f ca="1">Sheet1!K27</f>
-        <v>110</v>
+        <v>110.76</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6">
         <f ca="1">Sheet1!K28</f>
-        <v>114</v>
+        <v>114.66</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="40" t="s">
         <v>84</v>
       </c>
@@ -3078,7 +3204,7 @@
       </c>
       <c r="B11" s="6">
         <f ca="1">Sheet1!K29</f>
-        <v>112</v>
+        <v>112.59</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>73</v>
@@ -3107,7 +3233,7 @@
       </c>
       <c r="B12" s="6">
         <f ca="1">Sheet1!K30</f>
-        <v>95</v>
+        <v>95.62</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -3123,7 +3249,7 @@
       </c>
       <c r="B13" s="6">
         <f ca="1">Sheet1!K31</f>
-        <v>125</v>
+        <v>125.29</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -3139,7 +3265,7 @@
       </c>
       <c r="B14" s="6">
         <f ca="1">Sheet1!K32</f>
-        <v>117</v>
+        <v>117.3</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -3155,7 +3281,7 @@
       </c>
       <c r="B15" s="6">
         <f ca="1">Sheet1!K33</f>
-        <v>112</v>
+        <v>112.74</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -3171,7 +3297,7 @@
       </c>
       <c r="B16" s="6">
         <f ca="1">Sheet1!K34</f>
-        <v>118</v>
+        <v>118.35</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -3181,13 +3307,13 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="6">
         <f ca="1">Sheet1!K35</f>
-        <v>121</v>
+        <v>121.05</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -3203,7 +3329,7 @@
       </c>
       <c r="B18" s="6">
         <f ca="1">Sheet1!K36</f>
-        <v>114</v>
+        <v>114.27</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="54" t="s">
@@ -3214,19 +3340,19 @@
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1">
+    <row r="19" spans="1:9" ht="14.4" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6">
         <f ca="1">Sheet1!K37</f>
-        <v>114</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+        <v>114.29</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3234,27 +3360,27 @@
       </c>
       <c r="B20" s="6">
         <f ca="1">Sheet1!K38</f>
-        <v>111</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+        <v>111.14</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="6">
         <f ca="1">Sheet1!K39</f>
-        <v>109</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+        <v>109.26</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3262,7 +3388,7 @@
       </c>
       <c r="B22" s="6">
         <f ca="1">Sheet1!K40</f>
-        <v>104</v>
+        <v>104.41</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>71</v>
@@ -3278,13 +3404,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="6">
         <f ca="1">Sheet1!K41</f>
-        <v>119</v>
+        <v>119.21</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="93"/>
@@ -3298,7 +3424,7 @@
       </c>
       <c r="B24" s="6">
         <f ca="1">Sheet1!K42</f>
-        <v>114</v>
+        <v>114.6</v>
       </c>
       <c r="E24" s="2"/>
       <c r="H24" s="2"/>
@@ -3309,7 +3435,7 @@
       </c>
       <c r="B25" s="6">
         <f ca="1">Sheet1!K43</f>
-        <v>115</v>
+        <v>115.64</v>
       </c>
       <c r="E25" s="2"/>
       <c r="H25" s="2"/>
@@ -3320,7 +3446,7 @@
       </c>
       <c r="B26" s="6">
         <f ca="1">Sheet1!K44</f>
-        <v>118</v>
+        <v>118.08</v>
       </c>
       <c r="E26" s="2"/>
       <c r="H26" s="2"/>
@@ -3332,7 +3458,7 @@
       </c>
       <c r="B27" s="6">
         <f ca="1">Sheet1!K45</f>
-        <v>117</v>
+        <v>117.98</v>
       </c>
       <c r="E27" s="2"/>
       <c r="H27" s="2"/>
@@ -3343,7 +3469,7 @@
       </c>
       <c r="B28" s="6">
         <f ca="1">Sheet1!K46</f>
-        <v>118</v>
+        <v>118.82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="H28" s="2"/>
@@ -3354,7 +3480,7 @@
       </c>
       <c r="B29" s="6">
         <f ca="1">Sheet1!K47</f>
-        <v>125</v>
+        <v>125.41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3363,7 +3489,7 @@
       </c>
       <c r="B30" s="6">
         <f ca="1">Sheet1!K48</f>
-        <v>106</v>
+        <v>106.12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3372,7 +3498,7 @@
       </c>
       <c r="B31" s="6">
         <f ca="1">Sheet1!K49</f>
-        <v>108</v>
+        <v>108.56</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3381,7 +3507,7 @@
       </c>
       <c r="B32" s="6">
         <f ca="1">Sheet1!K50</f>
-        <v>122</v>
+        <v>122.38</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3390,7 +3516,7 @@
       </c>
       <c r="B33" s="6">
         <f ca="1">Sheet1!K51</f>
-        <v>114</v>
+        <v>114.29</v>
       </c>
       <c r="C33" s="32"/>
     </row>
@@ -3400,7 +3526,7 @@
       </c>
       <c r="B34" s="6">
         <f ca="1">Sheet1!K52</f>
-        <v>109</v>
+        <v>109.86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3409,7 +3535,7 @@
       </c>
       <c r="B35" s="6">
         <f ca="1">Sheet1!K53</f>
-        <v>121</v>
+        <v>121.42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3418,7 +3544,7 @@
       </c>
       <c r="B36" s="6">
         <f ca="1">Sheet1!K54</f>
-        <v>121</v>
+        <v>121.39</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3427,7 +3553,7 @@
       </c>
       <c r="B37" s="6">
         <f ca="1">Sheet1!K55</f>
-        <v>120</v>
+        <v>120.49</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3436,7 +3562,7 @@
       </c>
       <c r="B38" s="6">
         <f ca="1">Sheet1!K56</f>
-        <v>118</v>
+        <v>118.16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3445,7 +3571,7 @@
       </c>
       <c r="B39" s="6">
         <f ca="1">Sheet1!K57</f>
-        <v>117</v>
+        <v>117.52</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3454,7 +3580,7 @@
       </c>
       <c r="B40" s="6">
         <f ca="1">Sheet1!K58</f>
-        <v>104</v>
+        <v>104.44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3463,7 +3589,7 @@
       </c>
       <c r="B41" s="6">
         <f ca="1">Sheet1!K59</f>
-        <v>110</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3472,7 +3598,7 @@
       </c>
       <c r="B42" s="6">
         <f ca="1">Sheet1!K60</f>
-        <v>129</v>
+        <v>129.35</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3481,7 +3607,7 @@
       </c>
       <c r="B43" s="6">
         <f ca="1">Sheet1!K61</f>
-        <v>113</v>
+        <v>113.34</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3490,7 +3616,7 @@
       </c>
       <c r="B44" s="6">
         <f ca="1">Sheet1!K62</f>
-        <v>120</v>
+        <v>120.61</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3499,7 +3625,7 @@
       </c>
       <c r="B45" s="6">
         <f ca="1">Sheet1!K63</f>
-        <v>117</v>
+        <v>117.25</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3508,7 +3634,7 @@
       </c>
       <c r="B46" s="6">
         <f ca="1">Sheet1!K64</f>
-        <v>103</v>
+        <v>103.28</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3517,7 +3643,7 @@
       </c>
       <c r="B47" s="6">
         <f ca="1">Sheet1!K65</f>
-        <v>115</v>
+        <v>115.85</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3526,7 +3652,7 @@
       </c>
       <c r="B48" s="6">
         <f ca="1">Sheet1!K66</f>
-        <v>114</v>
+        <v>114.51</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3535,7 +3661,7 @@
       </c>
       <c r="B49" s="6">
         <f ca="1">Sheet1!K67</f>
-        <v>119</v>
+        <v>119.75</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3544,7 +3670,7 @@
       </c>
       <c r="B50" s="6">
         <f ca="1">Sheet1!K68</f>
-        <v>114</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3553,7 +3679,7 @@
       </c>
       <c r="B51" s="6">
         <f ca="1">Sheet1!K69</f>
-        <v>112</v>
+        <v>112.51</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" cm="1">
@@ -3682,11 +3808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4523-7F16-4EE5-BC77-7F896A2520B8}">
   <dimension ref="A1:X90"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K20" sqref="K20:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="I1">
@@ -4916,8 +5042,8 @@
         <v>112</v>
       </c>
       <c r="K20">
-        <f ca="1">J20+F12</f>
-        <v>112</v>
+        <f ca="1">J20+F12+ROUND(D20,2)</f>
+        <v>112.52</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -4951,8 +5077,8 @@
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K69" ca="1" si="8">J21+F13</f>
-        <v>100</v>
+        <f t="shared" ref="K21:K69" ca="1" si="8">J21+F13+ROUND(D21,2)</f>
+        <v>100.13</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -4987,7 +5113,7 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="8"/>
-        <v>128</v>
+        <v>128.49</v>
       </c>
       <c r="N22" s="41"/>
     </row>
@@ -5023,7 +5149,7 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="8"/>
-        <v>120</v>
+        <v>120.74</v>
       </c>
       <c r="N23" s="41"/>
     </row>
@@ -5059,7 +5185,7 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="8"/>
-        <v>142</v>
+        <v>142.01</v>
       </c>
       <c r="N24" s="41"/>
     </row>
@@ -5095,7 +5221,7 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>118.38</v>
       </c>
       <c r="N25" s="41"/>
     </row>
@@ -5131,7 +5257,7 @@
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="8"/>
-        <v>106</v>
+        <v>106.86</v>
       </c>
       <c r="N26" s="41"/>
     </row>
@@ -5167,7 +5293,7 @@
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="8"/>
-        <v>110</v>
+        <v>110.76</v>
       </c>
       <c r="N27" s="41"/>
     </row>
@@ -5203,7 +5329,7 @@
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>114.66</v>
       </c>
       <c r="N28" s="41"/>
     </row>
@@ -5239,7 +5365,7 @@
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="8"/>
-        <v>112</v>
+        <v>112.59</v>
       </c>
       <c r="N29" s="41"/>
     </row>
@@ -5275,7 +5401,7 @@
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>95.62</v>
       </c>
       <c r="N30" s="41"/>
     </row>
@@ -5311,7 +5437,7 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="8"/>
-        <v>125</v>
+        <v>125.29</v>
       </c>
       <c r="N31" s="41"/>
     </row>
@@ -5347,7 +5473,7 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>117.3</v>
       </c>
       <c r="N32" s="41"/>
     </row>
@@ -5383,7 +5509,7 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="8"/>
-        <v>112</v>
+        <v>112.74</v>
       </c>
       <c r="N33" s="41"/>
     </row>
@@ -5419,7 +5545,7 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>118.35</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -5454,7 +5580,7 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="8"/>
-        <v>121</v>
+        <v>121.05</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -5489,7 +5615,7 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>114.27</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -5524,7 +5650,7 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>114.29</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -5559,7 +5685,7 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>111.14</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5594,7 +5720,7 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="8"/>
-        <v>109</v>
+        <v>109.26</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -5629,7 +5755,7 @@
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="8"/>
-        <v>104</v>
+        <v>104.41</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5664,7 +5790,7 @@
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="8"/>
-        <v>119</v>
+        <v>119.21</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -5699,7 +5825,7 @@
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -5734,7 +5860,7 @@
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="8"/>
-        <v>115</v>
+        <v>115.64</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -5769,7 +5895,7 @@
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>118.08</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -5804,7 +5930,7 @@
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>117.98</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -5839,7 +5965,7 @@
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>118.82</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -5874,7 +6000,7 @@
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="8"/>
-        <v>125</v>
+        <v>125.41</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -5909,7 +6035,7 @@
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="8"/>
-        <v>106</v>
+        <v>106.12</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5944,7 +6070,7 @@
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="8"/>
-        <v>108</v>
+        <v>108.56</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5979,7 +6105,7 @@
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="8"/>
-        <v>122</v>
+        <v>122.38</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -6014,7 +6140,7 @@
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>114.29</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -6049,7 +6175,7 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="8"/>
-        <v>109</v>
+        <v>109.86</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6084,7 +6210,7 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="8"/>
-        <v>121</v>
+        <v>121.42</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -6119,7 +6245,7 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="8"/>
-        <v>121</v>
+        <v>121.39</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -6154,7 +6280,7 @@
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="8"/>
-        <v>120</v>
+        <v>120.49</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -6189,7 +6315,7 @@
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="8"/>
-        <v>118</v>
+        <v>118.16</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -6224,7 +6350,7 @@
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>117.52</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6259,7 +6385,7 @@
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="8"/>
-        <v>104</v>
+        <v>104.44</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6294,7 +6420,7 @@
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="8"/>
-        <v>110</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6329,7 +6455,7 @@
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="8"/>
-        <v>129</v>
+        <v>129.35</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6364,7 +6490,7 @@
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="8"/>
-        <v>113</v>
+        <v>113.34</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6399,7 +6525,7 @@
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="8"/>
-        <v>120</v>
+        <v>120.61</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6434,7 +6560,7 @@
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="8"/>
-        <v>117</v>
+        <v>117.25</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6469,7 +6595,7 @@
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="8"/>
-        <v>103</v>
+        <v>103.28</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6504,7 +6630,7 @@
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="8"/>
-        <v>115</v>
+        <v>115.85</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6539,7 +6665,7 @@
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>114.51</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6574,7 +6700,7 @@
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="8"/>
-        <v>119</v>
+        <v>119.75</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6609,7 +6735,7 @@
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="8"/>
-        <v>114</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6644,7 +6770,7 @@
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="8"/>
-        <v>112</v>
+        <v>112.51</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -7179,21 +7305,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7437,19 +7563,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{15AC572D-ED81-4219-9814-E3EDAF3B0D69}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CCF34147-0EE0-4F3C-AB84-D51773D56811}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="588" windowWidth="20112" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     </r>
   </si>
   <si>
-    <t>Create a hand generated relative frequency histogram where each bar is color coded to match your chosen colors above. Make sure to add the labels and the counts.</t>
-  </si>
-  <si>
     <t>Create a histogram using the Excel (clustered) column chart (2D or 3D).</t>
   </si>
   <si>
@@ -600,6 +597,9 @@
   </si>
   <si>
     <t>Repeat using formulas. You MUST complete "Hand DQ 1" first!</t>
+  </si>
+  <si>
+    <t>Create a hand generated frequency histogram where each bar is color coded to match your chosen colors above. Make sure to add the labels and the counts.</t>
   </si>
 </sst>
 </file>
@@ -1134,102 +1134,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1265,6 +1169,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1273,6 +1186,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2007,68 +2007,68 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="D1" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D1" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1"/>
-    <row r="6" spans="1:11" ht="15.6">
+        <v>108</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="J6" s="75" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="J6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -2076,11 +2076,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112.52</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2119,13 +2119,13 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="15"/>
       <c r="J9" s="11" t="s">
@@ -2135,7 +2135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2146,14 +2146,14 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>59</v>
@@ -2171,13 +2171,13 @@
         <v>142.01</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="D11" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2193,11 +2193,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2207,13 +2207,13 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -2221,13 +2221,13 @@
         <f ca="1">Sheet1!K27</f>
         <v>110.76</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -2238,17 +2238,17 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -2259,13 +2259,13 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -2374,7 +2374,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1">
+    <row r="24" spans="1:11" ht="14.45" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2415,11 +2415,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2429,13 +2429,13 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1">
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
@@ -2443,11 +2443,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104.41</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2461,17 +2461,17 @@
         <v>78</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
       <c r="I28" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -2479,11 +2479,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114.6</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2838,7 +2838,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" ht="15" thickTop="1">
+    <row r="51" spans="1:9" ht="15.75" thickTop="1">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -2927,17 +2927,17 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -2984,18 +2984,18 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3003,18 +3003,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E1" s="97"/>
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="F4" s="34"/>
       <c r="G4" s="35"/>
       <c r="H4" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>57</v>
@@ -3112,11 +3112,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142.01</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3132,13 +3132,13 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -3146,13 +3146,13 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -3163,17 +3163,17 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -3184,16 +3184,16 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="102" t="s">
         <v>84</v>
-      </c>
-      <c r="H10" s="102" t="s">
-        <v>85</v>
       </c>
       <c r="I10" s="102"/>
       <c r="J10" s="102"/>
@@ -3222,7 +3222,7 @@
         <v>77</v>
       </c>
       <c r="I11" s="95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
@@ -3307,7 +3307,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -3340,7 +3340,7 @@
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" customHeight="1">
+    <row r="19" spans="1:9" ht="14.45" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -3348,11 +3348,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114.29</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3362,13 +3362,13 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -3376,11 +3376,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3394,17 +3394,17 @@
         <v>71</v>
       </c>
       <c r="D22" s="89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="90"/>
       <c r="H22" s="91"/>
       <c r="I22" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3754,7 +3754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" cm="1">
@@ -3812,7 +3812,7 @@
       <selection activeCell="K20" sqref="K20:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="I1">
@@ -4438,7 +4438,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),G13)</f>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*G11+G12,G13)</f>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="41">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*G$11+G$12,G$13)</f>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4988,7 +4988,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="41">
         <f t="shared" ref="B34:B90" ca="1" si="9">MOD(B33*G$11+G$12,G$13)</f>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B58" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B60" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B61" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B64" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B65" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B74" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B78" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B80" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B85" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B86" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B88" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B89" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B90" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7305,21 +7305,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7563,19 +7563,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CCF34147-0EE0-4F3C-AB84-D51773D56811}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F820A6-EFD6-442C-A1A7-8EE67C696767}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Formulas DQ2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="171">
   <si>
     <t>State</t>
   </si>
@@ -601,6 +602,9 @@
   <si>
     <t>Create a hand generated frequency histogram where each bar is color coded to match your chosen colors above. Make sure to add the labels and the counts.</t>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
@@ -609,7 +613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +672,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1016,7 +1028,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1134,6 +1146,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1169,15 +1277,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1187,93 +1286,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,6 +1327,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2003,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2019,34 +2034,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:11" ht="15.75">
@@ -2056,17 +2071,17 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="J6" s="43" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="J6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -2076,11 +2091,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112.52</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -2119,11 +2134,11 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="39" t="s">
         <v>83</v>
       </c>
@@ -2146,11 +2161,11 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>83</v>
@@ -2171,13 +2186,13 @@
         <v>142.01</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2193,11 +2208,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2207,11 +2222,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -2221,11 +2236,11 @@
         <f ca="1">Sheet1!K27</f>
         <v>110.76</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -2238,11 +2253,11 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
         <v>83</v>
@@ -2259,11 +2274,11 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="40" t="s">
         <v>83</v>
       </c>
@@ -2415,11 +2430,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2429,11 +2444,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
@@ -2443,11 +2458,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104.41</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2479,11 +2494,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114.6</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2927,17 +2942,17 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -2980,7 +2995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1137E8F-1C1D-4812-96CD-8ACE7317344E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -3009,10 +3024,10 @@
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -3112,11 +3127,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142.01</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3132,11 +3147,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -3146,11 +3161,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -3163,11 +3178,11 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>83</v>
@@ -3184,11 +3199,11 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="40" t="s">
         <v>83</v>
       </c>
@@ -3348,11 +3363,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114.29</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3362,11 +3377,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
@@ -3376,11 +3391,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3749,6 +3764,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407FE25A-A45B-4890-A64D-7521D0899662}">
+  <dimension ref="B7:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="2:8">
+      <c r="B7" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:H14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206DDE0-65A2-4525-995F-49F65095EBC3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3804,7 +3912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD4523-7F16-4EE5-BC77-7F896A2520B8}">
   <dimension ref="A1:X90"/>
   <sheetViews>
@@ -7305,21 +7413,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7563,19 +7671,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{A4867632-43AB-4763-8819-0561CF9679FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5AB55E-F19D-41AF-A905-637F00B24614}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D2D16A-6A7D-4B55-89A7-0B5F3C252096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="684" windowWidth="17400" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -1146,6 +1146,102 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1181,15 +1277,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1198,93 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1337,16 +1337,13 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF339933"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1360,10 +1357,40 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF339933"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2019,71 +2046,71 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
+      <c r="D1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="67"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:11" ht="15.75">
+      <c r="C2" s="44"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1"/>
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="J6" s="43" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="J6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -2091,11 +2118,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112.52</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -2103,7 +2130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -2123,7 +2150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2134,11 +2161,11 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="39" t="s">
         <v>83</v>
       </c>
@@ -2150,7 +2177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2161,11 +2188,11 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="18"/>
       <c r="H10" s="40" t="s">
         <v>83</v>
@@ -2186,13 +2213,13 @@
         <v>142.01</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2208,11 +2235,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2222,13 +2249,13 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -2236,13 +2263,13 @@
         <f ca="1">Sheet1!K27</f>
         <v>110.76</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -2253,17 +2280,17 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="18"/>
       <c r="H15" s="40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -2274,11 +2301,11 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="40" t="s">
         <v>83</v>
       </c>
@@ -2389,7 +2416,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2432,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:11" ht="14.45" customHeight="1">
+    <row r="24" spans="1:11" ht="14.4" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2430,11 +2457,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2444,13 +2471,13 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
@@ -2458,11 +2485,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104.41</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2486,7 +2513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+    <row r="29" spans="1:11" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -2494,11 +2521,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114.6</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="62"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2853,7 +2880,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1">
+    <row r="50" spans="1:9" ht="15" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>16</v>
       </c>
@@ -2871,7 +2898,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickTop="1">
+    <row r="51" spans="1:9" ht="15" thickTop="1">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -2942,20 +2969,20 @@
     <sortCondition ref="A7:A57"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:K56">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2995,22 +3022,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1137E8F-1C1D-4812-96CD-8ACE7317344E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3024,12 +3051,12 @@
       <c r="F1" s="97"/>
       <c r="G1" s="97"/>
       <c r="H1" s="98"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -3049,7 +3076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -3069,7 +3096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" thickBot="1">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -3127,11 +3154,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142.01</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3147,13 +3174,13 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -3161,13 +3188,13 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -3178,17 +3205,17 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="35"/>
       <c r="H9" s="40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -3199,11 +3226,11 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="40" t="s">
         <v>83</v>
       </c>
@@ -3322,7 +3349,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -3355,7 +3382,7 @@
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1">
+    <row r="19" spans="1:9" ht="14.4" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -3363,11 +3390,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114.29</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3377,13 +3404,13 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="D20" s="86"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -3391,11 +3418,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3419,7 +3446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3726,36 +3753,20 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{DFFB5F44-41EC-4BE2-B855-809370786DC3}">
-            <xm:f>'Hand DQ1'!$B$2="Your Name"</xm:f>
+          <x14:cfRule type="expression" priority="1" id="{4321C13B-9D9E-4142-9612-9189A609C798}">
+            <xm:f>Sheet2!$D$1=FALSE</xm:f>
             <x14:dxf>
               <font>
-                <color theme="0" tint="-0.24994659260841701"/>
+                <color theme="2" tint="-0.24994659260841701"/>
               </font>
               <fill>
                 <patternFill>
-                  <bgColor theme="0" tint="-0.34998626667073579"/>
+                  <bgColor theme="2" tint="-0.24994659260841701"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A1:XFD1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{4321C13B-9D9E-4142-9612-9189A609C798}">
-            <xm:f>Sheet2!$D$1=FALSE</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0" tint="-0.24994659260841701"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.34998626667073579"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A3:XFD1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3767,9 +3778,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206DDE0-65A2-4525-995F-49F65095EBC3}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" cm="1">
@@ -3780,9 +3793,9 @@
         <f t="array" ref="B1:B6">'Hand DQ1'!G18:G23</f>
         <v>0</v>
       </c>
-      <c r="D1" t="e" cm="1">
-        <f t="array" aca="1" ref="D1" ca="1">AND(_xlfn.ANCHORARRAY(A1)=_xlfn.ANCHORARRAY(B1))</f>
-        <v>#N/A</v>
+      <c r="D1" t="b" cm="1">
+        <f t="array" aca="1" ref="D1" ca="1">IF(ISNA(AND(_xlfn.ANCHORARRAY(A1)=_xlfn.ANCHORARRAY(B1))),FALSE,AND(_xlfn.ANCHORARRAY(A1)=_xlfn.ANCHORARRAY(B1)))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3827,7 +3840,7 @@
       <selection activeCell="K20" sqref="K20:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="I1">
@@ -7327,7 +7340,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="7" spans="2:8">
       <c r="B7" s="103" t="s">
@@ -7653,21 +7666,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7691,14 +7704,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7706,4 +7711,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
+++ b/144F20/Topic 6/Topic 6 DQ 1 and 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D2D16A-6A7D-4B55-89A7-0B5F3C252096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{18D2D16A-6A7D-4B55-89A7-0B5F3C252096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07E0DA9-F1AA-4AF2-8F66-F9C07448154C}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="684" windowWidth="17400" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hand DQ1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="171">
   <si>
     <t>State</t>
   </si>
@@ -336,18 +336,12 @@
     <t>Create a histogram using the Excel (clustered) column chart (2D or 3D).</t>
   </si>
   <si>
-    <t>Click on links for video instruction.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Split the data up into 6 equal length bins. To make sure that all of the data falls into a bin, split the interval (Min - 1, Max + 1] into six sub intervals. The length of each sub interval will be ((Max + 1) - (Min -1))/6. We call this the bin width. </t>
   </si>
   <si>
     <t>Video</t>
   </si>
   <si>
-    <t>Video showing simplified use of FREQUENCY</t>
-  </si>
-  <si>
     <t>Seed</t>
   </si>
   <si>
@@ -604,6 +598,38 @@
   </si>
   <si>
     <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The frequency numbers must be all correct
+and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before "Formulas DQ 2" will show
+correctly.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Video instruction for this </t>
   </si>
 </sst>
 </file>
@@ -613,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +709,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="14">
@@ -765,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1022,13 +1062,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1146,102 +1199,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1277,6 +1234,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1286,6 +1252,93 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,9 +1357,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,11 +1375,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1337,24 +1431,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF339933"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
@@ -1382,26 +1459,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1422,306 +1479,62 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2796791" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523B523B-74AB-4342-84BC-7508BA77C4DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6833D29B-84CC-4744-BDDC-568B97384D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7962900" y="3133725"/>
-          <a:ext cx="2796791" cy="609013"/>
+          <a:off x="3962401" y="640081"/>
+          <a:ext cx="304799" cy="304799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>The frequency numbers must be all correct</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="339933"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>green</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t> before "Formulas DQ 2" will show</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>correctly.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3957302" cy="781240"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D716DF00-76B2-47D4-8EBD-1DADDE1B8CC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7993380" y="2171700"/>
-          <a:ext cx="3957302" cy="781240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>There was confusion about bin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>width and using decimals so after</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>the videos were made I changed this to use decimal temps. This is</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>important</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> for understanding what is being done here. The videos</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>still apply.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Explosion: 8 Points 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778EC0C0-E991-4925-A559-5A3BF9A995E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9342120" y="1280160"/>
-          <a:ext cx="1981200" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="irregularSeal1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="16200000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:latin typeface="Comic Sans MS" panose="030F0702030302020204" pitchFamily="66" charset="0"/>
-            </a:rPr>
-            <a:t>Watch this!</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2046,7 +1859,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2061,36 +1874,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="D1" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+        <v>106</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="D4" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1">
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+    </row>
     <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="3" t="s">
         <v>0</v>
@@ -2098,17 +1926,17 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="J6" s="75" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="J6" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="76"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
@@ -2118,11 +1946,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112.52</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="J7" s="7" t="s">
         <v>53</v>
       </c>
@@ -2161,14 +1989,12 @@
       <c r="C9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="39" t="s">
-        <v>83</v>
-      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="15"/>
       <c r="J9" s="11" t="s">
         <v>57</v>
@@ -2188,15 +2014,13 @@
       <c r="C10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="H10" s="40"/>
       <c r="J10" s="12" t="s">
         <v>59</v>
       </c>
@@ -2213,13 +2037,13 @@
         <v>142.01</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+      <c r="D11" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
       <c r="J11" s="13" t="s">
         <v>61</v>
       </c>
@@ -2235,11 +2059,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
@@ -2249,11 +2073,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
@@ -2263,11 +2087,11 @@
         <f ca="1">Sheet1!K27</f>
         <v>110.76</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -2280,15 +2104,13 @@
       <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
@@ -2301,14 +2123,12 @@
       <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:11">
@@ -2351,7 +2171,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -2382,7 +2202,12 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="106"/>
+      <c r="K20" s="107"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
@@ -2398,9 +2223,12 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="H21" s="103"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2414,7 +2242,10 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="113"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
@@ -2457,11 +2288,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
@@ -2471,11 +2302,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="88"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
@@ -2485,11 +2316,11 @@
         <f ca="1">Sheet1!K40</f>
         <v>104.41</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
@@ -2503,14 +2334,14 @@
         <v>78</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
       <c r="I28" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1">
@@ -2521,11 +2352,11 @@
         <f ca="1">Sheet1!K42</f>
         <v>114.6</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -2968,34 +2799,33 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B57">
     <sortCondition ref="A7:A57"/>
   </sortState>
-  <mergeCells count="11">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D24:H27"/>
+  <mergeCells count="13">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:H3"/>
     <mergeCell ref="D28:H29"/>
     <mergeCell ref="D11:H14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D24:H27"/>
+    <mergeCell ref="I20:K22"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:K56">
+  <conditionalFormatting sqref="A6:K19 A23:K56 A20:I20 A21:H22 A5:C5 I5:K5">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B$2="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{1A4D9B31-31EF-455F-A939-EFF024C47ED2}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{7BE5FF37-1966-4C2F-8DF2-36BF7E146862}"/>
-    <hyperlink ref="H15" r:id="rId3" xr:uid="{289E55CD-D09F-43E7-BBD8-087028C7D677}"/>
-    <hyperlink ref="G16" r:id="rId4" xr:uid="{09655D64-FF03-45EE-BFF1-C7F7AAB7437B}"/>
-    <hyperlink ref="I28" r:id="rId5" xr:uid="{90D42186-3EC6-4CBA-A9A6-D390BD68B385}"/>
+    <hyperlink ref="I28" r:id="rId1" xr:uid="{90D42186-3EC6-4CBA-A9A6-D390BD68B385}"/>
+    <hyperlink ref="D4:H5" r:id="rId2" display="Video instruction for this " xr:uid="{15558009-77A1-4417-B6BD-6531B986297C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3022,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1137E8F-1C1D-4812-96CD-8ACE7317344E}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3044,17 +2874,17 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="J1" s="75" t="s">
+      <c r="D1" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="J1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -3064,11 +2894,11 @@
         <f ca="1">Sheet1!K20</f>
         <v>112.52</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
       <c r="J2" s="7" t="s">
         <v>53</v>
       </c>
@@ -3113,9 +2943,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
       <c r="G4" s="35"/>
-      <c r="H4" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="H4" s="40"/>
       <c r="J4" s="11" t="s">
         <v>57</v>
       </c>
@@ -3154,11 +2982,11 @@
         <f ca="1">Sheet1!K24</f>
         <v>142.01</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="88"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
       <c r="J6" s="13" t="s">
         <v>61</v>
       </c>
@@ -3174,11 +3002,11 @@
         <f ca="1">Sheet1!K25</f>
         <v>118.38</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
@@ -3188,11 +3016,11 @@
         <f ca="1">Sheet1!K26</f>
         <v>106.86</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
@@ -3205,15 +3033,13 @@
       <c r="C9" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
@@ -3226,19 +3052,15 @@
       <c r="C10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -3263,11 +3085,9 @@
       <c r="H11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
@@ -3390,11 +3210,11 @@
         <f ca="1">Sheet1!K37</f>
         <v>114.29</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="88"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -3404,11 +3224,11 @@
         <f ca="1">Sheet1!K38</f>
         <v>111.14</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
@@ -3418,11 +3238,11 @@
         <f ca="1">Sheet1!K39</f>
         <v>109.26</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
@@ -3442,9 +3262,7 @@
       <c r="F22" s="90"/>
       <c r="G22" s="90"/>
       <c r="H22" s="91"/>
-      <c r="I22" s="40" t="s">
-        <v>83</v>
-      </c>
+      <c r="I22" s="40"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
@@ -3728,27 +3546,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
     <sortCondition ref="A2:A29"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D18:H21"/>
     <mergeCell ref="D22:H23"/>
-    <mergeCell ref="I11:K11"/>
     <mergeCell ref="D1:H2"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="D5:H8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H10:J10"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{359FCE77-05D3-4F9C-ABDA-F7B1E5CE024C}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{8145BF5A-91EF-4139-8882-41D98A587BEF}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{16A3184C-5B21-4250-8AC2-BD4506A0A66A}"/>
-    <hyperlink ref="I22" r:id="rId4" xr:uid="{21372468-7144-45F2-810C-AF73549AE097}"/>
-    <hyperlink ref="H10:J10" r:id="rId5" display="Video showing simplified use of FREQUENCY" xr:uid="{18F75E96-48E1-4188-949A-D7B7C41A367C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4466,7 +4275,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),G13)</f>
@@ -4529,7 +4338,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*G11+G12,G13)</f>
@@ -4608,7 +4417,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="41">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*G$11+G$12,G$13)</f>
@@ -4687,7 +4496,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4763,7 +4572,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4839,7 +4648,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4915,7 +4724,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -4991,7 +4800,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5016,7 +4825,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5041,7 +4850,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5076,7 +4885,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5111,7 +4920,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5147,7 +4956,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5183,7 +4992,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5219,7 +5028,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5255,7 +5064,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5291,7 +5100,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5327,7 +5136,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5363,7 +5172,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5399,7 +5208,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5435,7 +5244,7 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5471,7 +5280,7 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5507,7 +5316,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="3"/>
@@ -5543,7 +5352,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="41">
         <f t="shared" ref="B34:B90" ca="1" si="9">MOD(B33*G$11+G$12,G$13)</f>
@@ -5578,7 +5387,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5613,7 +5422,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5648,7 +5457,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5683,7 +5492,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5718,7 +5527,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5753,7 +5562,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5788,7 +5597,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5823,7 +5632,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5858,7 +5667,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5893,7 +5702,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5928,7 +5737,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5963,7 +5772,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -5998,7 +5807,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6033,7 +5842,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6068,7 +5877,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6103,7 +5912,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6138,7 +5947,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6173,7 +5982,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6208,7 +6017,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6243,7 +6052,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6278,7 +6087,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6313,7 +6122,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6348,7 +6157,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B57" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6383,7 +6192,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6418,7 +6227,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6453,7 +6262,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B60" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6488,7 +6297,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B61" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6523,7 +6332,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6558,7 +6367,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B63" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6593,7 +6402,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6628,7 +6437,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6663,7 +6472,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6698,7 +6507,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6733,7 +6542,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B68" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6768,7 +6577,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6803,7 +6612,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6828,7 +6637,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6853,7 +6662,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B72" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6878,7 +6687,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6903,7 +6712,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6928,7 +6737,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6953,7 +6762,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B76" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -6978,7 +6787,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7003,7 +6812,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B78" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7028,7 +6837,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B79" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7053,7 +6862,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7078,7 +6887,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B81" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7103,7 +6912,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7128,7 +6937,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B83" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7153,7 +6962,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B84" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7178,7 +6987,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7203,7 +7012,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B86" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7228,7 +7037,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7253,7 +7062,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B88" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7278,7 +7087,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B89" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7303,7 +7112,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B90" s="41">
         <f t="shared" ca="1" si="9"/>
@@ -7343,78 +7152,78 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="7" spans="2:8">
-      <c r="B7" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="B7" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7666,21 +7475,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7704,6 +7513,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23FC55F1-8C15-4A13-B875-E9240B3D0196}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7711,12 +7528,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BD24FA-A4D4-4F71-A18A-C8260E97BFC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>